--- a/31617 ITE3.xlsx
+++ b/31617 ITE3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="INITIAL INPUT" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="262">
   <si>
     <t>J</t>
   </si>
@@ -951,6 +951,30 @@
   </si>
   <si>
     <t>16-3677-891</t>
+  </si>
+  <si>
+    <t>CC01</t>
+  </si>
+  <si>
+    <t>CC02</t>
+  </si>
+  <si>
+    <t>PF01</t>
+  </si>
+  <si>
+    <t>PF02</t>
+  </si>
+  <si>
+    <t>AS01</t>
+  </si>
+  <si>
+    <t>QUIZ01</t>
+  </si>
+  <si>
+    <t>QUIZ02</t>
+  </si>
+  <si>
+    <t>QUIZ03</t>
   </si>
 </sst>
 </file>
@@ -11169,8 +11193,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12141,7 +12165,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y135"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
@@ -12501,25 +12525,25 @@
         <f>IF(NAMES!D2="","",NAMES!D2)</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E9" s="82" t="str">
+      <c r="E9" s="82">
         <f>IF(PRELIM!P9="","",$E$8*PRELIM!P9)</f>
-        <v/>
-      </c>
-      <c r="F9" s="83" t="str">
+        <v>28.6</v>
+      </c>
+      <c r="F9" s="83">
         <f>IF(PRELIM!AB9="","",$F$8*PRELIM!AB9)</f>
-        <v/>
-      </c>
-      <c r="G9" s="83" t="str">
+        <v>28.05</v>
+      </c>
+      <c r="G9" s="83">
         <f>IF(PRELIM!AD9="","",$G$8*PRELIM!AD9)</f>
-        <v/>
-      </c>
-      <c r="H9" s="84" t="str">
+        <v>30.222222222222225</v>
+      </c>
+      <c r="H9" s="84">
         <f t="shared" ref="H9:H40" si="0">IF(SUM(E9:G9)=0,"",SUM(E9:G9))</f>
-        <v/>
-      </c>
-      <c r="I9" s="85" t="str">
+        <v>86.872222222222234</v>
+      </c>
+      <c r="I9" s="85">
         <f>IF(H9="","",VLOOKUP(H9,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>93</v>
       </c>
       <c r="J9" s="83" t="str">
         <f>IF(MIDTERM!P9="","",$J$8*MIDTERM!P9)</f>
@@ -12592,25 +12616,25 @@
         <f>IF(NAMES!D3="","",NAMES!D3)</f>
         <v>BSCS-DIGITAL ARTS TRACK-2</v>
       </c>
-      <c r="E10" s="82" t="str">
+      <c r="E10" s="82">
         <f>IF(PRELIM!P10="","",$E$8*PRELIM!P10)</f>
-        <v/>
-      </c>
-      <c r="F10" s="83" t="str">
+        <v>14.520000000000001</v>
+      </c>
+      <c r="F10" s="83">
         <f>IF(PRELIM!AB10="","",$F$8*PRELIM!AB10)</f>
-        <v/>
-      </c>
-      <c r="G10" s="83" t="str">
+        <v>24.75</v>
+      </c>
+      <c r="G10" s="83">
         <f>IF(PRELIM!AD10="","",$G$8*PRELIM!AD10)</f>
-        <v/>
-      </c>
-      <c r="H10" s="84" t="str">
+        <v>17.377777777777776</v>
+      </c>
+      <c r="H10" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I10" s="85" t="str">
+        <v>56.647777777777776</v>
+      </c>
+      <c r="I10" s="85">
         <f>IF(H10="","",VLOOKUP(H10,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>78</v>
       </c>
       <c r="J10" s="83" t="str">
         <f>IF(MIDTERM!P10="","",$J$8*MIDTERM!P10)</f>
@@ -12686,25 +12710,25 @@
         <f>IF(NAMES!D4="","",NAMES!D4)</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E11" s="82" t="str">
+      <c r="E11" s="82">
         <f>IF(PRELIM!P11="","",$E$8*PRELIM!P11)</f>
-        <v/>
-      </c>
-      <c r="F11" s="83" t="str">
+        <v>22.44</v>
+      </c>
+      <c r="F11" s="83">
         <f>IF(PRELIM!AB11="","",$F$8*PRELIM!AB11)</f>
-        <v/>
-      </c>
-      <c r="G11" s="83" t="str">
+        <v>26.400000000000002</v>
+      </c>
+      <c r="G11" s="83">
         <f>IF(PRELIM!AD11="","",$G$8*PRELIM!AD11)</f>
-        <v/>
-      </c>
-      <c r="H11" s="84" t="str">
+        <v>23.422222222222224</v>
+      </c>
+      <c r="H11" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I11" s="85" t="str">
+        <v>72.262222222222221</v>
+      </c>
+      <c r="I11" s="85">
         <f>IF(H11="","",VLOOKUP(H11,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>86</v>
       </c>
       <c r="J11" s="83" t="str">
         <f>IF(MIDTERM!P11="","",$J$8*MIDTERM!P11)</f>
@@ -12780,25 +12804,25 @@
         <f>IF(NAMES!D5="","",NAMES!D5)</f>
         <v>BSIT-NET SEC TRACK-2</v>
       </c>
-      <c r="E12" s="82" t="str">
+      <c r="E12" s="82">
         <f>IF(PRELIM!P12="","",$E$8*PRELIM!P12)</f>
-        <v/>
-      </c>
-      <c r="F12" s="83" t="str">
+        <v>25.959999999999997</v>
+      </c>
+      <c r="F12" s="83">
         <f>IF(PRELIM!AB12="","",$F$8*PRELIM!AB12)</f>
-        <v/>
-      </c>
-      <c r="G12" s="83" t="str">
+        <v>28.05</v>
+      </c>
+      <c r="G12" s="83">
         <f>IF(PRELIM!AD12="","",$G$8*PRELIM!AD12)</f>
-        <v/>
-      </c>
-      <c r="H12" s="84" t="str">
+        <v>25.68888888888889</v>
+      </c>
+      <c r="H12" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I12" s="85" t="str">
+        <v>79.698888888888888</v>
+      </c>
+      <c r="I12" s="85">
         <f>IF(H12="","",VLOOKUP(H12,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>90</v>
       </c>
       <c r="J12" s="83" t="str">
         <f>IF(MIDTERM!P12="","",$J$8*MIDTERM!P12)</f>
@@ -12874,25 +12898,25 @@
         <f>IF(NAMES!D6="","",NAMES!D6)</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E13" s="82" t="str">
+      <c r="E13" s="82">
         <f>IF(PRELIM!P13="","",$E$8*PRELIM!P13)</f>
-        <v/>
-      </c>
-      <c r="F13" s="83" t="str">
+        <v>28.160000000000004</v>
+      </c>
+      <c r="F13" s="83">
         <f>IF(PRELIM!AB13="","",$F$8*PRELIM!AB13)</f>
-        <v/>
-      </c>
-      <c r="G13" s="83" t="str">
+        <v>28.05</v>
+      </c>
+      <c r="G13" s="83">
         <f>IF(PRELIM!AD13="","",$G$8*PRELIM!AD13)</f>
-        <v/>
-      </c>
-      <c r="H13" s="84" t="str">
+        <v>29.466666666666672</v>
+      </c>
+      <c r="H13" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I13" s="85" t="str">
+        <v>85.676666666666677</v>
+      </c>
+      <c r="I13" s="85">
         <f>IF(H13="","",VLOOKUP(H13,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>93</v>
       </c>
       <c r="J13" s="83" t="str">
         <f>IF(MIDTERM!P13="","",$J$8*MIDTERM!P13)</f>
@@ -12968,25 +12992,25 @@
         <f>IF(NAMES!D7="","",NAMES!D7)</f>
         <v>BSCS-DIGITAL ARTS TRACK-1</v>
       </c>
-      <c r="E14" s="82" t="str">
+      <c r="E14" s="82">
         <f>IF(PRELIM!P14="","",$E$8*PRELIM!P14)</f>
-        <v/>
-      </c>
-      <c r="F14" s="83" t="str">
+        <v>23.320000000000004</v>
+      </c>
+      <c r="F14" s="83">
         <f>IF(PRELIM!AB14="","",$F$8*PRELIM!AB14)</f>
-        <v/>
-      </c>
-      <c r="G14" s="83" t="str">
+        <v>29.700000000000003</v>
+      </c>
+      <c r="G14" s="83">
         <f>IF(PRELIM!AD14="","",$G$8*PRELIM!AD14)</f>
-        <v/>
-      </c>
-      <c r="H14" s="84" t="str">
+        <v>24.933333333333334</v>
+      </c>
+      <c r="H14" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I14" s="85" t="str">
+        <v>77.953333333333347</v>
+      </c>
+      <c r="I14" s="85">
         <f>IF(H14="","",VLOOKUP(H14,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>89</v>
       </c>
       <c r="J14" s="83" t="str">
         <f>IF(MIDTERM!P14="","",$J$8*MIDTERM!P14)</f>
@@ -13062,25 +13086,25 @@
         <f>IF(NAMES!D8="","",NAMES!D8)</f>
         <v>BSIT-WEB TRACK-2</v>
       </c>
-      <c r="E15" s="82" t="str">
+      <c r="E15" s="82">
         <f>IF(PRELIM!P15="","",$E$8*PRELIM!P15)</f>
-        <v/>
-      </c>
-      <c r="F15" s="83" t="str">
+        <v>21.999999999999996</v>
+      </c>
+      <c r="F15" s="83">
         <f>IF(PRELIM!AB15="","",$F$8*PRELIM!AB15)</f>
-        <v/>
-      </c>
-      <c r="G15" s="83" t="str">
+        <v>28.71</v>
+      </c>
+      <c r="G15" s="83">
         <f>IF(PRELIM!AD15="","",$G$8*PRELIM!AD15)</f>
-        <v/>
-      </c>
-      <c r="H15" s="84" t="str">
+        <v>12.08888888888889</v>
+      </c>
+      <c r="H15" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I15" s="85" t="str">
+        <v>62.798888888888882</v>
+      </c>
+      <c r="I15" s="85">
         <f>IF(H15="","",VLOOKUP(H15,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>81</v>
       </c>
       <c r="J15" s="83" t="str">
         <f>IF(MIDTERM!P15="","",$J$8*MIDTERM!P15)</f>
@@ -13156,25 +13180,25 @@
         <f>IF(NAMES!D9="","",NAMES!D9)</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E16" s="82" t="str">
+      <c r="E16" s="82">
         <f>IF(PRELIM!P16="","",$E$8*PRELIM!P16)</f>
-        <v/>
-      </c>
-      <c r="F16" s="83" t="str">
+        <v>24.640000000000004</v>
+      </c>
+      <c r="F16" s="83">
         <f>IF(PRELIM!AB16="","",$F$8*PRELIM!AB16)</f>
-        <v/>
-      </c>
-      <c r="G16" s="83" t="str">
+        <v>28.05</v>
+      </c>
+      <c r="G16" s="83">
         <f>IF(PRELIM!AD16="","",$G$8*PRELIM!AD16)</f>
-        <v/>
-      </c>
-      <c r="H16" s="84" t="str">
+        <v>23.422222222222224</v>
+      </c>
+      <c r="H16" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I16" s="85" t="str">
+        <v>76.112222222222229</v>
+      </c>
+      <c r="I16" s="85">
         <f>IF(H16="","",VLOOKUP(H16,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>88</v>
       </c>
       <c r="J16" s="83" t="str">
         <f>IF(MIDTERM!P16="","",$J$8*MIDTERM!P16)</f>
@@ -13250,25 +13274,25 @@
         <f>IF(NAMES!D10="","",NAMES!D10)</f>
         <v>BSIT-NET SEC TRACK-2</v>
       </c>
-      <c r="E17" s="82" t="str">
+      <c r="E17" s="82">
         <f>IF(PRELIM!P17="","",$E$8*PRELIM!P17)</f>
-        <v/>
-      </c>
-      <c r="F17" s="83" t="str">
+        <v>25.959999999999997</v>
+      </c>
+      <c r="F17" s="83">
         <f>IF(PRELIM!AB17="","",$F$8*PRELIM!AB17)</f>
-        <v/>
-      </c>
-      <c r="G17" s="83" t="str">
+        <v>29.700000000000003</v>
+      </c>
+      <c r="G17" s="83">
         <f>IF(PRELIM!AD17="","",$G$8*PRELIM!AD17)</f>
-        <v/>
-      </c>
-      <c r="H17" s="84" t="str">
+        <v>25.68888888888889</v>
+      </c>
+      <c r="H17" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I17" s="85" t="str">
+        <v>81.348888888888894</v>
+      </c>
+      <c r="I17" s="85">
         <f>IF(H17="","",VLOOKUP(H17,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>91</v>
       </c>
       <c r="J17" s="83" t="str">
         <f>IF(MIDTERM!P17="","",$J$8*MIDTERM!P17)</f>
@@ -13344,25 +13368,25 @@
         <f>IF(NAMES!D11="","",NAMES!D11)</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E18" s="82" t="str">
+      <c r="E18" s="82">
         <f>IF(PRELIM!P18="","",$E$8*PRELIM!P18)</f>
-        <v/>
-      </c>
-      <c r="F18" s="83" t="str">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="F18" s="83">
         <f>IF(PRELIM!AB18="","",$F$8*PRELIM!AB18)</f>
-        <v/>
-      </c>
-      <c r="G18" s="83" t="str">
+        <v>29.700000000000003</v>
+      </c>
+      <c r="G18" s="83">
         <f>IF(PRELIM!AD18="","",$G$8*PRELIM!AD18)</f>
-        <v/>
-      </c>
-      <c r="H18" s="84" t="str">
+        <v>15.866666666666667</v>
+      </c>
+      <c r="H18" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I18" s="85" t="str">
+        <v>65.806666666666672</v>
+      </c>
+      <c r="I18" s="85">
         <f>IF(H18="","",VLOOKUP(H18,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>83</v>
       </c>
       <c r="J18" s="83" t="str">
         <f>IF(MIDTERM!P18="","",$J$8*MIDTERM!P18)</f>
@@ -13438,25 +13462,25 @@
         <f>IF(NAMES!D12="","",NAMES!D12)</f>
         <v>BSIT-WEB TRACK-2</v>
       </c>
-      <c r="E19" s="82" t="str">
+      <c r="E19" s="82">
         <f>IF(PRELIM!P19="","",$E$8*PRELIM!P19)</f>
-        <v/>
-      </c>
-      <c r="F19" s="83" t="str">
+        <v>15.84</v>
+      </c>
+      <c r="F19" s="83">
         <f>IF(PRELIM!AB19="","",$F$8*PRELIM!AB19)</f>
-        <v/>
-      </c>
-      <c r="G19" s="83" t="str">
+        <v>26.400000000000002</v>
+      </c>
+      <c r="G19" s="83">
         <f>IF(PRELIM!AD19="","",$G$8*PRELIM!AD19)</f>
-        <v/>
-      </c>
-      <c r="H19" s="84" t="str">
+        <v>19.644444444444442</v>
+      </c>
+      <c r="H19" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I19" s="85" t="str">
+        <v>61.884444444444441</v>
+      </c>
+      <c r="I19" s="85">
         <f>IF(H19="","",VLOOKUP(H19,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>81</v>
       </c>
       <c r="J19" s="83" t="str">
         <f>IF(MIDTERM!P19="","",$J$8*MIDTERM!P19)</f>
@@ -13532,25 +13556,25 @@
         <f>IF(NAMES!D13="","",NAMES!D13)</f>
         <v>BSIT-BA TRACK-1</v>
       </c>
-      <c r="E20" s="82" t="str">
+      <c r="E20" s="82">
         <f>IF(PRELIM!P20="","",$E$8*PRELIM!P20)</f>
-        <v/>
-      </c>
-      <c r="F20" s="83" t="str">
+        <v>21.56</v>
+      </c>
+      <c r="F20" s="83">
         <f>IF(PRELIM!AB20="","",$F$8*PRELIM!AB20)</f>
-        <v/>
-      </c>
-      <c r="G20" s="83" t="str">
+        <v>24.75</v>
+      </c>
+      <c r="G20" s="83">
         <f>IF(PRELIM!AD20="","",$G$8*PRELIM!AD20)</f>
-        <v/>
-      </c>
-      <c r="H20" s="84" t="str">
+        <v>18.133333333333336</v>
+      </c>
+      <c r="H20" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I20" s="85" t="str">
+        <v>64.443333333333342</v>
+      </c>
+      <c r="I20" s="85">
         <f>IF(H20="","",VLOOKUP(H20,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>82</v>
       </c>
       <c r="J20" s="83" t="str">
         <f>IF(MIDTERM!P20="","",$J$8*MIDTERM!P20)</f>
@@ -13626,25 +13650,25 @@
         <f>IF(NAMES!D14="","",NAMES!D14)</f>
         <v>BSIT-WEB TRACK-2</v>
       </c>
-      <c r="E21" s="82" t="str">
+      <c r="E21" s="82">
         <f>IF(PRELIM!P21="","",$E$8*PRELIM!P21)</f>
-        <v/>
-      </c>
-      <c r="F21" s="83" t="str">
+        <v>21.56</v>
+      </c>
+      <c r="F21" s="83">
         <f>IF(PRELIM!AB21="","",$F$8*PRELIM!AB21)</f>
-        <v/>
-      </c>
-      <c r="G21" s="83" t="str">
+        <v>28.05</v>
+      </c>
+      <c r="G21" s="83">
         <f>IF(PRELIM!AD21="","",$G$8*PRELIM!AD21)</f>
-        <v/>
-      </c>
-      <c r="H21" s="84" t="str">
+        <v>18.133333333333336</v>
+      </c>
+      <c r="H21" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I21" s="85" t="str">
+        <v>67.743333333333339</v>
+      </c>
+      <c r="I21" s="85">
         <f>IF(H21="","",VLOOKUP(H21,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>84</v>
       </c>
       <c r="J21" s="83" t="str">
         <f>IF(MIDTERM!P21="","",$J$8*MIDTERM!P21)</f>
@@ -13720,25 +13744,25 @@
         <f>IF(NAMES!D15="","",NAMES!D15)</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E22" s="82" t="str">
+      <c r="E22" s="82">
         <f>IF(PRELIM!P22="","",$E$8*PRELIM!P22)</f>
-        <v/>
-      </c>
-      <c r="F22" s="83" t="str">
+        <v>27.28</v>
+      </c>
+      <c r="F22" s="83">
         <f>IF(PRELIM!AB22="","",$F$8*PRELIM!AB22)</f>
-        <v/>
-      </c>
-      <c r="G22" s="83" t="str">
+        <v>28.71</v>
+      </c>
+      <c r="G22" s="83">
         <f>IF(PRELIM!AD22="","",$G$8*PRELIM!AD22)</f>
-        <v/>
-      </c>
-      <c r="H22" s="84" t="str">
+        <v>27.955555555555556</v>
+      </c>
+      <c r="H22" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I22" s="85" t="str">
+        <v>83.945555555555558</v>
+      </c>
+      <c r="I22" s="85">
         <f>IF(H22="","",VLOOKUP(H22,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>92</v>
       </c>
       <c r="J22" s="83" t="str">
         <f>IF(MIDTERM!P22="","",$J$8*MIDTERM!P22)</f>
@@ -13814,25 +13838,25 @@
         <f>IF(NAMES!D16="","",NAMES!D16)</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E23" s="82" t="str">
+      <c r="E23" s="82">
         <f>IF(PRELIM!P23="","",$E$8*PRELIM!P23)</f>
-        <v/>
-      </c>
-      <c r="F23" s="83" t="str">
+        <v>19.36</v>
+      </c>
+      <c r="F23" s="83">
         <f>IF(PRELIM!AB23="","",$F$8*PRELIM!AB23)</f>
-        <v/>
-      </c>
-      <c r="G23" s="83" t="str">
+        <v>28.05</v>
+      </c>
+      <c r="G23" s="83">
         <f>IF(PRELIM!AD23="","",$G$8*PRELIM!AD23)</f>
-        <v/>
-      </c>
-      <c r="H23" s="84" t="str">
+        <v>25.68888888888889</v>
+      </c>
+      <c r="H23" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I23" s="85" t="str">
+        <v>73.098888888888894</v>
+      </c>
+      <c r="I23" s="85">
         <f>IF(H23="","",VLOOKUP(H23,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>87</v>
       </c>
       <c r="J23" s="83" t="str">
         <f>IF(MIDTERM!P23="","",$J$8*MIDTERM!P23)</f>
@@ -13908,25 +13932,25 @@
         <f>IF(NAMES!D17="","",NAMES!D17)</f>
         <v>BSCS-DIGITAL ARTS TRACK-2</v>
       </c>
-      <c r="E24" s="82" t="str">
+      <c r="E24" s="82">
         <f>IF(PRELIM!P24="","",$E$8*PRELIM!P24)</f>
-        <v/>
-      </c>
-      <c r="F24" s="83" t="str">
+        <v>16.720000000000002</v>
+      </c>
+      <c r="F24" s="83">
         <f>IF(PRELIM!AB24="","",$F$8*PRELIM!AB24)</f>
-        <v/>
-      </c>
-      <c r="G24" s="83" t="str">
+        <v>24.75</v>
+      </c>
+      <c r="G24" s="83">
         <f>IF(PRELIM!AD24="","",$G$8*PRELIM!AD24)</f>
-        <v/>
-      </c>
-      <c r="H24" s="84" t="str">
+        <v>21.155555555555559</v>
+      </c>
+      <c r="H24" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I24" s="85" t="str">
+        <v>62.625555555555557</v>
+      </c>
+      <c r="I24" s="85">
         <f>IF(H24="","",VLOOKUP(H24,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>81</v>
       </c>
       <c r="J24" s="83" t="str">
         <f>IF(MIDTERM!P24="","",$J$8*MIDTERM!P24)</f>
@@ -14002,25 +14026,25 @@
         <f>IF(NAMES!D18="","",NAMES!D18)</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E25" s="82" t="str">
+      <c r="E25" s="82">
         <f>IF(PRELIM!P25="","",$E$8*PRELIM!P25)</f>
-        <v/>
-      </c>
-      <c r="F25" s="83" t="str">
+        <v>24.2</v>
+      </c>
+      <c r="F25" s="83">
         <f>IF(PRELIM!AB25="","",$F$8*PRELIM!AB25)</f>
-        <v/>
-      </c>
-      <c r="G25" s="83" t="str">
+        <v>28.05</v>
+      </c>
+      <c r="G25" s="83">
         <f>IF(PRELIM!AD25="","",$G$8*PRELIM!AD25)</f>
-        <v/>
-      </c>
-      <c r="H25" s="84" t="str">
+        <v>26.44444444444445</v>
+      </c>
+      <c r="H25" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I25" s="85" t="str">
+        <v>78.694444444444457</v>
+      </c>
+      <c r="I25" s="85">
         <f>IF(H25="","",VLOOKUP(H25,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>89</v>
       </c>
       <c r="J25" s="83" t="str">
         <f>IF(MIDTERM!P25="","",$J$8*MIDTERM!P25)</f>
@@ -14096,25 +14120,25 @@
         <f>IF(NAMES!D19="","",NAMES!D19)</f>
         <v>BSIT-NET SEC TRACK-2</v>
       </c>
-      <c r="E26" s="82" t="str">
+      <c r="E26" s="82">
         <f>IF(PRELIM!P26="","",$E$8*PRELIM!P26)</f>
-        <v/>
-      </c>
-      <c r="F26" s="83" t="str">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F26" s="83">
         <f>IF(PRELIM!AB26="","",$F$8*PRELIM!AB26)</f>
-        <v/>
-      </c>
-      <c r="G26" s="83" t="str">
+        <v>26.73</v>
+      </c>
+      <c r="G26" s="83">
         <f>IF(PRELIM!AD26="","",$G$8*PRELIM!AD26)</f>
-        <v/>
-      </c>
-      <c r="H26" s="84" t="str">
+        <v>15.111111111111112</v>
+      </c>
+      <c r="H26" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I26" s="85" t="str">
+        <v>59.441111111111113</v>
+      </c>
+      <c r="I26" s="85">
         <f>IF(H26="","",VLOOKUP(H26,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>80</v>
       </c>
       <c r="J26" s="83" t="str">
         <f>IF(MIDTERM!P26="","",$J$8*MIDTERM!P26)</f>
@@ -14193,25 +14217,25 @@
         <f>IF(NAMES!D20="","",NAMES!D20)</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E27" s="82" t="str">
+      <c r="E27" s="82">
         <f>IF(PRELIM!P27="","",$E$8*PRELIM!P27)</f>
-        <v/>
-      </c>
-      <c r="F27" s="83" t="str">
+        <v>13.200000000000001</v>
+      </c>
+      <c r="F27" s="83">
         <f>IF(PRELIM!AB27="","",$F$8*PRELIM!AB27)</f>
-        <v/>
-      </c>
-      <c r="G27" s="83" t="str">
+        <v>28.71</v>
+      </c>
+      <c r="G27" s="83">
         <f>IF(PRELIM!AD27="","",$G$8*PRELIM!AD27)</f>
-        <v/>
-      </c>
-      <c r="H27" s="84" t="str">
+        <v>15.111111111111112</v>
+      </c>
+      <c r="H27" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I27" s="85" t="str">
+        <v>57.021111111111118</v>
+      </c>
+      <c r="I27" s="85">
         <f>IF(H27="","",VLOOKUP(H27,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>79</v>
       </c>
       <c r="J27" s="83" t="str">
         <f>IF(MIDTERM!P27="","",$J$8*MIDTERM!P27)</f>
@@ -14288,25 +14312,25 @@
         <f>IF(NAMES!D21="","",NAMES!D21)</f>
         <v>BSIT-WEB TRACK-2</v>
       </c>
-      <c r="E28" s="82" t="str">
+      <c r="E28" s="82">
         <f>IF(PRELIM!P28="","",$E$8*PRELIM!P28)</f>
-        <v/>
-      </c>
-      <c r="F28" s="83" t="str">
+        <v>23.76</v>
+      </c>
+      <c r="F28" s="83">
         <f>IF(PRELIM!AB28="","",$F$8*PRELIM!AB28)</f>
-        <v/>
-      </c>
-      <c r="G28" s="83" t="str">
+        <v>24.75</v>
+      </c>
+      <c r="G28" s="83">
         <f>IF(PRELIM!AD28="","",$G$8*PRELIM!AD28)</f>
-        <v/>
-      </c>
-      <c r="H28" s="84" t="str">
+        <v>25.68888888888889</v>
+      </c>
+      <c r="H28" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I28" s="85" t="str">
+        <v>74.198888888888888</v>
+      </c>
+      <c r="I28" s="85">
         <f>IF(H28="","",VLOOKUP(H28,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>87</v>
       </c>
       <c r="J28" s="83" t="str">
         <f>IF(MIDTERM!P28="","",$J$8*MIDTERM!P28)</f>
@@ -14383,25 +14407,25 @@
         <f>IF(NAMES!D22="","",NAMES!D22)</f>
         <v>BSIT-NET SEC TRACK-2</v>
       </c>
-      <c r="E29" s="82" t="str">
+      <c r="E29" s="82">
         <f>IF(PRELIM!P29="","",$E$8*PRELIM!P29)</f>
-        <v/>
-      </c>
-      <c r="F29" s="83" t="str">
+        <v>25.080000000000002</v>
+      </c>
+      <c r="F29" s="83">
         <f>IF(PRELIM!AB29="","",$F$8*PRELIM!AB29)</f>
-        <v/>
-      </c>
-      <c r="G29" s="83" t="str">
+        <v>28.05</v>
+      </c>
+      <c r="G29" s="83">
         <f>IF(PRELIM!AD29="","",$G$8*PRELIM!AD29)</f>
-        <v/>
-      </c>
-      <c r="H29" s="84" t="str">
+        <v>24.177777777777781</v>
+      </c>
+      <c r="H29" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I29" s="85" t="str">
+        <v>77.307777777777787</v>
+      </c>
+      <c r="I29" s="85">
         <f>IF(H29="","",VLOOKUP(H29,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>89</v>
       </c>
       <c r="J29" s="83" t="str">
         <f>IF(MIDTERM!P29="","",$J$8*MIDTERM!P29)</f>
@@ -14478,25 +14502,25 @@
         <f>IF(NAMES!D23="","",NAMES!D23)</f>
         <v>BSIT-NET SEC TRACK-2</v>
       </c>
-      <c r="E30" s="82" t="str">
+      <c r="E30" s="82">
         <f>IF(PRELIM!P30="","",$E$8*PRELIM!P30)</f>
-        <v/>
-      </c>
-      <c r="F30" s="83" t="str">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="F30" s="83">
         <f>IF(PRELIM!AB30="","",$F$8*PRELIM!AB30)</f>
-        <v/>
-      </c>
-      <c r="G30" s="83" t="str">
+        <v>16.830000000000002</v>
+      </c>
+      <c r="G30" s="83">
         <f>IF(PRELIM!AD30="","",$G$8*PRELIM!AD30)</f>
-        <v/>
-      </c>
-      <c r="H30" s="84" t="str">
+        <v>19.644444444444442</v>
+      </c>
+      <c r="H30" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I30" s="85" t="str">
+        <v>56.714444444444439</v>
+      </c>
+      <c r="I30" s="85">
         <f>IF(H30="","",VLOOKUP(H30,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>78</v>
       </c>
       <c r="J30" s="83" t="str">
         <f>IF(MIDTERM!P30="","",$J$8*MIDTERM!P30)</f>
@@ -14573,25 +14597,25 @@
         <f>IF(NAMES!D24="","",NAMES!D24)</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E31" s="82" t="str">
+      <c r="E31" s="82">
         <f>IF(PRELIM!P31="","",$E$8*PRELIM!P31)</f>
-        <v/>
-      </c>
-      <c r="F31" s="83" t="str">
+        <v>16.720000000000002</v>
+      </c>
+      <c r="F31" s="83">
         <f>IF(PRELIM!AB31="","",$F$8*PRELIM!AB31)</f>
-        <v/>
-      </c>
-      <c r="G31" s="83" t="str">
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="G31" s="83">
         <f>IF(PRELIM!AD31="","",$G$8*PRELIM!AD31)</f>
-        <v/>
-      </c>
-      <c r="H31" s="84" t="str">
+        <v>21.155555555555559</v>
+      </c>
+      <c r="H31" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I31" s="85" t="str">
+        <v>39.525555555555556</v>
+      </c>
+      <c r="I31" s="85">
         <f>IF(H31="","",VLOOKUP(H31,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="J31" s="83" t="str">
         <f>IF(MIDTERM!P31="","",$J$8*MIDTERM!P31)</f>
@@ -14668,25 +14692,25 @@
         <f>IF(NAMES!D25="","",NAMES!D25)</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E32" s="82" t="str">
+      <c r="E32" s="82">
         <f>IF(PRELIM!P32="","",$E$8*PRELIM!P32)</f>
-        <v/>
-      </c>
-      <c r="F32" s="83" t="str">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F32" s="83">
         <f>IF(PRELIM!AB32="","",$F$8*PRELIM!AB32)</f>
-        <v/>
-      </c>
-      <c r="G32" s="83" t="str">
+        <v>16.830000000000002</v>
+      </c>
+      <c r="G32" s="83">
         <f>IF(PRELIM!AD32="","",$G$8*PRELIM!AD32)</f>
-        <v/>
-      </c>
-      <c r="H32" s="84" t="str">
+        <v>22.666666666666664</v>
+      </c>
+      <c r="H32" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I32" s="85" t="str">
+        <v>57.096666666666671</v>
+      </c>
+      <c r="I32" s="85">
         <f>IF(H32="","",VLOOKUP(H32,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>79</v>
       </c>
       <c r="J32" s="83" t="str">
         <f>IF(MIDTERM!P32="","",$J$8*MIDTERM!P32)</f>
@@ -14763,25 +14787,25 @@
         <f>IF(NAMES!D26="","",NAMES!D26)</f>
         <v>BSCPE-4</v>
       </c>
-      <c r="E33" s="82" t="str">
+      <c r="E33" s="82">
         <f>IF(PRELIM!P33="","",$E$8*PRELIM!P33)</f>
-        <v/>
-      </c>
-      <c r="F33" s="83" t="str">
+        <v>21.999999999999996</v>
+      </c>
+      <c r="F33" s="83">
         <f>IF(PRELIM!AB33="","",$F$8*PRELIM!AB33)</f>
-        <v/>
-      </c>
-      <c r="G33" s="83" t="str">
+        <v>28.05</v>
+      </c>
+      <c r="G33" s="83">
         <f>IF(PRELIM!AD33="","",$G$8*PRELIM!AD33)</f>
-        <v/>
-      </c>
-      <c r="H33" s="84" t="str">
+        <v>22.666666666666664</v>
+      </c>
+      <c r="H33" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I33" s="85" t="str">
+        <v>72.716666666666669</v>
+      </c>
+      <c r="I33" s="85">
         <f>IF(H33="","",VLOOKUP(H33,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>86</v>
       </c>
       <c r="J33" s="83" t="str">
         <f>IF(MIDTERM!P33="","",$J$8*MIDTERM!P33)</f>
@@ -14862,21 +14886,21 @@
         <f>IF(PRELIM!P34="","",$E$8*PRELIM!P34)</f>
         <v/>
       </c>
-      <c r="F34" s="83" t="str">
+      <c r="F34" s="83">
         <f>IF(PRELIM!AB34="","",$F$8*PRELIM!AB34)</f>
-        <v/>
+        <v>1.6500000000000001</v>
       </c>
       <c r="G34" s="83" t="str">
         <f>IF(PRELIM!AD34="","",$G$8*PRELIM!AD34)</f>
         <v/>
       </c>
-      <c r="H34" s="84" t="str">
+      <c r="H34" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I34" s="85" t="str">
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="I34" s="85">
         <f>IF(H34="","",VLOOKUP(H34,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>70</v>
       </c>
       <c r="J34" s="83" t="str">
         <f>IF(MIDTERM!P34="","",$J$8*MIDTERM!P34)</f>
@@ -14953,25 +14977,25 @@
         <f>IF(NAMES!D28="","",NAMES!D28)</f>
         <v>BSIT-WEB TRACK-2</v>
       </c>
-      <c r="E35" s="82" t="str">
+      <c r="E35" s="82">
         <f>IF(PRELIM!P35="","",$E$8*PRELIM!P35)</f>
-        <v/>
-      </c>
-      <c r="F35" s="83" t="str">
+        <v>20.680000000000003</v>
+      </c>
+      <c r="F35" s="83">
         <f>IF(PRELIM!AB35="","",$F$8*PRELIM!AB35)</f>
-        <v/>
-      </c>
-      <c r="G35" s="83" t="str">
+        <v>26.400000000000002</v>
+      </c>
+      <c r="G35" s="83">
         <f>IF(PRELIM!AD35="","",$G$8*PRELIM!AD35)</f>
-        <v/>
-      </c>
-      <c r="H35" s="84" t="str">
+        <v>16.622222222222224</v>
+      </c>
+      <c r="H35" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I35" s="85" t="str">
+        <v>63.702222222222233</v>
+      </c>
+      <c r="I35" s="85">
         <f>IF(H35="","",VLOOKUP(H35,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>82</v>
       </c>
       <c r="J35" s="83" t="str">
         <f>IF(MIDTERM!P35="","",$J$8*MIDTERM!P35)</f>
@@ -15048,25 +15072,25 @@
         <f>IF(NAMES!D29="","",NAMES!D29)</f>
         <v>BSCS-DIGITAL ARTS TRACK-2</v>
       </c>
-      <c r="E36" s="82" t="str">
+      <c r="E36" s="82">
         <f>IF(PRELIM!P36="","",$E$8*PRELIM!P36)</f>
-        <v/>
-      </c>
-      <c r="F36" s="83" t="str">
+        <v>12.320000000000002</v>
+      </c>
+      <c r="F36" s="83">
         <f>IF(PRELIM!AB36="","",$F$8*PRELIM!AB36)</f>
-        <v/>
-      </c>
-      <c r="G36" s="83" t="str">
+        <v>26.400000000000002</v>
+      </c>
+      <c r="G36" s="83">
         <f>IF(PRELIM!AD36="","",$G$8*PRELIM!AD36)</f>
-        <v/>
-      </c>
-      <c r="H36" s="84" t="str">
+        <v>5.2888888888888896</v>
+      </c>
+      <c r="H36" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I36" s="85" t="str">
+        <v>44.008888888888897</v>
+      </c>
+      <c r="I36" s="85">
         <f>IF(H36="","",VLOOKUP(H36,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="J36" s="83" t="str">
         <f>IF(MIDTERM!P36="","",$J$8*MIDTERM!P36)</f>
@@ -15143,25 +15167,25 @@
         <f>IF(NAMES!D30="","",NAMES!D30)</f>
         <v>BSCS-DIGITAL ARTS TRACK-1</v>
       </c>
-      <c r="E37" s="82" t="str">
+      <c r="E37" s="82">
         <f>IF(PRELIM!P37="","",$E$8*PRELIM!P37)</f>
-        <v/>
-      </c>
-      <c r="F37" s="83" t="str">
+        <v>19.36</v>
+      </c>
+      <c r="F37" s="83">
         <f>IF(PRELIM!AB37="","",$F$8*PRELIM!AB37)</f>
-        <v/>
-      </c>
-      <c r="G37" s="83" t="str">
+        <v>28.05</v>
+      </c>
+      <c r="G37" s="83">
         <f>IF(PRELIM!AD37="","",$G$8*PRELIM!AD37)</f>
-        <v/>
-      </c>
-      <c r="H37" s="84" t="str">
+        <v>25.68888888888889</v>
+      </c>
+      <c r="H37" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I37" s="85" t="str">
+        <v>73.098888888888894</v>
+      </c>
+      <c r="I37" s="85">
         <f>IF(H37="","",VLOOKUP(H37,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>87</v>
       </c>
       <c r="J37" s="83" t="str">
         <f>IF(MIDTERM!P37="","",$J$8*MIDTERM!P37)</f>
@@ -15238,25 +15262,25 @@
         <f>IF(NAMES!D31="","",NAMES!D31)</f>
         <v>BSCS-DIGITAL ARTS TRACK-2</v>
       </c>
-      <c r="E38" s="82" t="str">
+      <c r="E38" s="82">
         <f>IF(PRELIM!P38="","",$E$8*PRELIM!P38)</f>
-        <v/>
-      </c>
-      <c r="F38" s="83" t="str">
+        <v>24.640000000000004</v>
+      </c>
+      <c r="F38" s="83">
         <f>IF(PRELIM!AB38="","",$F$8*PRELIM!AB38)</f>
-        <v/>
-      </c>
-      <c r="G38" s="83" t="str">
+        <v>24.75</v>
+      </c>
+      <c r="G38" s="83">
         <f>IF(PRELIM!AD38="","",$G$8*PRELIM!AD38)</f>
-        <v/>
-      </c>
-      <c r="H38" s="84" t="str">
+        <v>23.422222222222224</v>
+      </c>
+      <c r="H38" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I38" s="85" t="str">
+        <v>72.812222222222232</v>
+      </c>
+      <c r="I38" s="85">
         <f>IF(H38="","",VLOOKUP(H38,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>86</v>
       </c>
       <c r="J38" s="83" t="str">
         <f>IF(MIDTERM!P38="","",$J$8*MIDTERM!P38)</f>
@@ -15333,25 +15357,25 @@
         <f>IF(NAMES!D32="","",NAMES!D32)</f>
         <v>BSIT-WEB TRACK-2</v>
       </c>
-      <c r="E39" s="82" t="str">
+      <c r="E39" s="82">
         <f>IF(PRELIM!P39="","",$E$8*PRELIM!P39)</f>
-        <v/>
-      </c>
-      <c r="F39" s="83" t="str">
+        <v>24.640000000000004</v>
+      </c>
+      <c r="F39" s="83">
         <f>IF(PRELIM!AB39="","",$F$8*PRELIM!AB39)</f>
-        <v/>
-      </c>
-      <c r="G39" s="83" t="str">
+        <v>28.05</v>
+      </c>
+      <c r="G39" s="83">
         <f>IF(PRELIM!AD39="","",$G$8*PRELIM!AD39)</f>
-        <v/>
-      </c>
-      <c r="H39" s="84" t="str">
+        <v>23.422222222222224</v>
+      </c>
+      <c r="H39" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I39" s="85" t="str">
+        <v>76.112222222222229</v>
+      </c>
+      <c r="I39" s="85">
         <f>IF(H39="","",VLOOKUP(H39,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>88</v>
       </c>
       <c r="J39" s="83" t="str">
         <f>IF(MIDTERM!P39="","",$J$8*MIDTERM!P39)</f>
@@ -15428,25 +15452,25 @@
         <f>IF(NAMES!D33="","",NAMES!D33)</f>
         <v>BSIT-WEB TRACK-2</v>
       </c>
-      <c r="E40" s="82" t="str">
+      <c r="E40" s="82">
         <f>IF(PRELIM!P40="","",$E$8*PRELIM!P40)</f>
-        <v/>
-      </c>
-      <c r="F40" s="83" t="str">
+        <v>26.400000000000002</v>
+      </c>
+      <c r="F40" s="83">
         <f>IF(PRELIM!AB40="","",$F$8*PRELIM!AB40)</f>
-        <v/>
-      </c>
-      <c r="G40" s="83" t="str">
+        <v>23.925000000000001</v>
+      </c>
+      <c r="G40" s="83">
         <f>IF(PRELIM!AD40="","",$G$8*PRELIM!AD40)</f>
-        <v/>
-      </c>
-      <c r="H40" s="84" t="str">
+        <v>30.222222222222225</v>
+      </c>
+      <c r="H40" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I40" s="85" t="str">
+        <v>80.547222222222231</v>
+      </c>
+      <c r="I40" s="85">
         <f>IF(H40="","",VLOOKUP(H40,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>90</v>
       </c>
       <c r="J40" s="83" t="str">
         <f>IF(MIDTERM!P40="","",$J$8*MIDTERM!P40)</f>
@@ -15833,25 +15857,25 @@
         <f>IF(NAMES!D34="","",NAMES!D34)</f>
         <v>BSIT-WEB TRACK-2</v>
       </c>
-      <c r="E50" s="82" t="str">
+      <c r="E50" s="82">
         <f>IF(PRELIM!P50="","",$E$8*PRELIM!P50)</f>
-        <v/>
-      </c>
-      <c r="F50" s="83" t="str">
+        <v>25.52</v>
+      </c>
+      <c r="F50" s="83">
         <f>IF(PRELIM!AB50="","",$F$8*PRELIM!AB50)</f>
-        <v/>
-      </c>
-      <c r="G50" s="83" t="str">
+        <v>29.700000000000003</v>
+      </c>
+      <c r="G50" s="83">
         <f>IF(PRELIM!AD50="","",$G$8*PRELIM!AD50)</f>
-        <v/>
-      </c>
-      <c r="H50" s="84" t="str">
+        <v>24.933333333333334</v>
+      </c>
+      <c r="H50" s="84">
         <f t="shared" ref="H50:H80" si="6">IF(SUM(E50:G50)=0,"",SUM(E50:G50))</f>
-        <v/>
-      </c>
-      <c r="I50" s="85" t="str">
+        <v>80.153333333333336</v>
+      </c>
+      <c r="I50" s="85">
         <f>IF(H50="","",VLOOKUP(H50,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>90</v>
       </c>
       <c r="J50" s="83" t="str">
         <f>IF(MIDTERM!P50="","",$J$8*MIDTERM!P50)</f>
@@ -15927,25 +15951,25 @@
         <f>IF(NAMES!D35="","",NAMES!D35)</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E51" s="82" t="str">
+      <c r="E51" s="82">
         <f>IF(PRELIM!P51="","",$E$8*PRELIM!P51)</f>
-        <v/>
-      </c>
-      <c r="F51" s="83" t="str">
+        <v>18.04</v>
+      </c>
+      <c r="F51" s="83">
         <f>IF(PRELIM!AB51="","",$F$8*PRELIM!AB51)</f>
-        <v/>
-      </c>
-      <c r="G51" s="83" t="str">
+        <v>28.05</v>
+      </c>
+      <c r="G51" s="83">
         <f>IF(PRELIM!AD51="","",$G$8*PRELIM!AD51)</f>
-        <v/>
-      </c>
-      <c r="H51" s="84" t="str">
+        <v>12.844444444444445</v>
+      </c>
+      <c r="H51" s="84">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I51" s="85" t="str">
+        <v>58.934444444444452</v>
+      </c>
+      <c r="I51" s="85">
         <f>IF(H51="","",VLOOKUP(H51,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>79</v>
       </c>
       <c r="J51" s="83" t="str">
         <f>IF(MIDTERM!P51="","",$J$8*MIDTERM!P51)</f>
@@ -16021,25 +16045,25 @@
         <f>IF(NAMES!D36="","",NAMES!D36)</f>
         <v>BSCS-DIGITAL ARTS TRACK-2</v>
       </c>
-      <c r="E52" s="82" t="str">
+      <c r="E52" s="82">
         <f>IF(PRELIM!P52="","",$E$8*PRELIM!P52)</f>
-        <v/>
-      </c>
-      <c r="F52" s="83" t="str">
+        <v>19.36</v>
+      </c>
+      <c r="F52" s="83">
         <f>IF(PRELIM!AB52="","",$F$8*PRELIM!AB52)</f>
-        <v/>
-      </c>
-      <c r="G52" s="83" t="str">
+        <v>23.1</v>
+      </c>
+      <c r="G52" s="83">
         <f>IF(PRELIM!AD52="","",$G$8*PRELIM!AD52)</f>
-        <v/>
-      </c>
-      <c r="H52" s="84" t="str">
+        <v>18.133333333333336</v>
+      </c>
+      <c r="H52" s="84">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I52" s="85" t="str">
+        <v>60.593333333333334</v>
+      </c>
+      <c r="I52" s="85">
         <f>IF(H52="","",VLOOKUP(H52,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>80</v>
       </c>
       <c r="J52" s="83" t="str">
         <f>IF(MIDTERM!P52="","",$J$8*MIDTERM!P52)</f>
@@ -16115,25 +16139,25 @@
         <f>IF(NAMES!D37="","",NAMES!D37)</f>
         <v>BSIT-WEB TRACK-2</v>
       </c>
-      <c r="E53" s="82" t="str">
+      <c r="E53" s="82">
         <f>IF(PRELIM!P53="","",$E$8*PRELIM!P53)</f>
-        <v/>
-      </c>
-      <c r="F53" s="83" t="str">
+        <v>24.2</v>
+      </c>
+      <c r="F53" s="83">
         <f>IF(PRELIM!AB53="","",$F$8*PRELIM!AB53)</f>
-        <v/>
-      </c>
-      <c r="G53" s="83" t="str">
+        <v>24.75</v>
+      </c>
+      <c r="G53" s="83">
         <f>IF(PRELIM!AD53="","",$G$8*PRELIM!AD53)</f>
-        <v/>
-      </c>
-      <c r="H53" s="84" t="str">
+        <v>26.44444444444445</v>
+      </c>
+      <c r="H53" s="84">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I53" s="85" t="str">
+        <v>75.394444444444446</v>
+      </c>
+      <c r="I53" s="85">
         <f>IF(H53="","",VLOOKUP(H53,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>88</v>
       </c>
       <c r="J53" s="83" t="str">
         <f>IF(MIDTERM!P53="","",$J$8*MIDTERM!P53)</f>
@@ -16209,25 +16233,25 @@
         <f>IF(NAMES!D38="","",NAMES!D38)</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E54" s="82" t="str">
+      <c r="E54" s="82">
         <f>IF(PRELIM!P54="","",$E$8*PRELIM!P54)</f>
-        <v/>
-      </c>
-      <c r="F54" s="83" t="str">
+        <v>23.320000000000004</v>
+      </c>
+      <c r="F54" s="83">
         <f>IF(PRELIM!AB54="","",$F$8*PRELIM!AB54)</f>
-        <v/>
-      </c>
-      <c r="G54" s="83" t="str">
+        <v>23.1</v>
+      </c>
+      <c r="G54" s="83">
         <f>IF(PRELIM!AD54="","",$G$8*PRELIM!AD54)</f>
-        <v/>
-      </c>
-      <c r="H54" s="84" t="str">
+        <v>32.488888888888894</v>
+      </c>
+      <c r="H54" s="84">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I54" s="85" t="str">
+        <v>78.908888888888896</v>
+      </c>
+      <c r="I54" s="85">
         <f>IF(H54="","",VLOOKUP(H54,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>89</v>
       </c>
       <c r="J54" s="83" t="str">
         <f>IF(MIDTERM!P54="","",$J$8*MIDTERM!P54)</f>
@@ -16303,25 +16327,25 @@
         <f>IF(NAMES!D39="","",NAMES!D39)</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E55" s="82" t="str">
+      <c r="E55" s="82">
         <f>IF(PRELIM!P55="","",$E$8*PRELIM!P55)</f>
-        <v/>
-      </c>
-      <c r="F55" s="83" t="str">
+        <v>27.720000000000002</v>
+      </c>
+      <c r="F55" s="83">
         <f>IF(PRELIM!AB55="","",$F$8*PRELIM!AB55)</f>
-        <v/>
-      </c>
-      <c r="G55" s="83" t="str">
+        <v>29.700000000000003</v>
+      </c>
+      <c r="G55" s="83">
         <f>IF(PRELIM!AD55="","",$G$8*PRELIM!AD55)</f>
-        <v/>
-      </c>
-      <c r="H55" s="84" t="str">
+        <v>28.711111111111112</v>
+      </c>
+      <c r="H55" s="84">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I55" s="85" t="str">
+        <v>86.13111111111111</v>
+      </c>
+      <c r="I55" s="85">
         <f>IF(H55="","",VLOOKUP(H55,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>93</v>
       </c>
       <c r="J55" s="83" t="str">
         <f>IF(MIDTERM!P55="","",$J$8*MIDTERM!P55)</f>
@@ -16401,21 +16425,21 @@
         <f>IF(PRELIM!P56="","",$E$8*PRELIM!P56)</f>
         <v/>
       </c>
-      <c r="F56" s="83" t="str">
+      <c r="F56" s="83">
         <f>IF(PRELIM!AB56="","",$F$8*PRELIM!AB56)</f>
-        <v/>
+        <v>8.25</v>
       </c>
       <c r="G56" s="83" t="str">
         <f>IF(PRELIM!AD56="","",$G$8*PRELIM!AD56)</f>
         <v/>
       </c>
-      <c r="H56" s="84" t="str">
+      <c r="H56" s="84">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I56" s="85" t="str">
+        <v>8.25</v>
+      </c>
+      <c r="I56" s="85">
         <f>IF(H56="","",VLOOKUP(H56,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>71</v>
       </c>
       <c r="J56" s="83" t="str">
         <f>IF(MIDTERM!P56="","",$J$8*MIDTERM!P56)</f>
@@ -16491,25 +16515,25 @@
         <f>IF(NAMES!D41="","",NAMES!D41)</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E57" s="82" t="str">
+      <c r="E57" s="82">
         <f>IF(PRELIM!P57="","",$E$8*PRELIM!P57)</f>
-        <v/>
-      </c>
-      <c r="F57" s="83" t="str">
+        <v>21.999999999999996</v>
+      </c>
+      <c r="F57" s="83">
         <f>IF(PRELIM!AB57="","",$F$8*PRELIM!AB57)</f>
-        <v/>
-      </c>
-      <c r="G57" s="83" t="str">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="G57" s="83">
         <f>IF(PRELIM!AD57="","",$G$8*PRELIM!AD57)</f>
-        <v/>
-      </c>
-      <c r="H57" s="84" t="str">
+        <v>18.133333333333336</v>
+      </c>
+      <c r="H57" s="84">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I57" s="85" t="str">
+        <v>58.283333333333331</v>
+      </c>
+      <c r="I57" s="85">
         <f>IF(H57="","",VLOOKUP(H57,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>79</v>
       </c>
       <c r="J57" s="83" t="str">
         <f>IF(MIDTERM!P57="","",$J$8*MIDTERM!P57)</f>
@@ -16585,25 +16609,25 @@
         <f>IF(NAMES!D42="","",NAMES!D42)</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E58" s="82" t="str">
+      <c r="E58" s="82">
         <f>IF(PRELIM!P58="","",$E$8*PRELIM!P58)</f>
-        <v/>
-      </c>
-      <c r="F58" s="83" t="str">
+        <v>25.959999999999997</v>
+      </c>
+      <c r="F58" s="83">
         <f>IF(PRELIM!AB58="","",$F$8*PRELIM!AB58)</f>
-        <v/>
-      </c>
-      <c r="G58" s="83" t="str">
+        <v>29.700000000000003</v>
+      </c>
+      <c r="G58" s="83">
         <f>IF(PRELIM!AD58="","",$G$8*PRELIM!AD58)</f>
-        <v/>
-      </c>
-      <c r="H58" s="84" t="str">
+        <v>25.68888888888889</v>
+      </c>
+      <c r="H58" s="84">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I58" s="85" t="str">
+        <v>81.348888888888894</v>
+      </c>
+      <c r="I58" s="85">
         <f>IF(H58="","",VLOOKUP(H58,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>91</v>
       </c>
       <c r="J58" s="83" t="str">
         <f>IF(MIDTERM!P58="","",$J$8*MIDTERM!P58)</f>
@@ -19589,8 +19613,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AK135"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19851,10 +19875,18 @@
       <c r="B5" s="335"/>
       <c r="C5" s="336"/>
       <c r="D5" s="336"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
+      <c r="E5" s="108">
+        <v>15</v>
+      </c>
+      <c r="F5" s="108">
+        <v>25</v>
+      </c>
+      <c r="G5" s="108">
+        <v>25</v>
+      </c>
+      <c r="H5" s="108">
+        <v>10</v>
+      </c>
       <c r="I5" s="108"/>
       <c r="J5" s="108"/>
       <c r="K5" s="108"/>
@@ -19863,10 +19895,18 @@
       <c r="N5" s="108"/>
       <c r="O5" s="330"/>
       <c r="P5" s="307"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
+      <c r="Q5" s="108">
+        <v>50</v>
+      </c>
+      <c r="R5" s="108">
+        <v>50</v>
+      </c>
+      <c r="S5" s="108">
+        <v>50</v>
+      </c>
+      <c r="T5" s="108">
+        <v>50</v>
+      </c>
       <c r="U5" s="108"/>
       <c r="V5" s="108"/>
       <c r="W5" s="108"/>
@@ -19875,7 +19915,9 @@
       <c r="Z5" s="108"/>
       <c r="AA5" s="330"/>
       <c r="AB5" s="307"/>
-      <c r="AC5" s="110"/>
+      <c r="AC5" s="110">
+        <v>90</v>
+      </c>
       <c r="AD5" s="322"/>
       <c r="AE5" s="361"/>
       <c r="AF5" s="363"/>
@@ -19893,34 +19935,50 @@
       <c r="B6" s="310"/>
       <c r="C6" s="311"/>
       <c r="D6" s="311"/>
-      <c r="E6" s="313"/>
-      <c r="F6" s="313"/>
-      <c r="G6" s="313"/>
-      <c r="H6" s="313"/>
+      <c r="E6" s="313" t="s">
+        <v>258</v>
+      </c>
+      <c r="F6" s="313" t="s">
+        <v>259</v>
+      </c>
+      <c r="G6" s="313" t="s">
+        <v>260</v>
+      </c>
+      <c r="H6" s="313" t="s">
+        <v>261</v>
+      </c>
       <c r="I6" s="313"/>
       <c r="J6" s="313"/>
       <c r="K6" s="313"/>
       <c r="L6" s="313"/>
       <c r="M6" s="313"/>
       <c r="N6" s="313"/>
-      <c r="O6" s="331" t="str">
+      <c r="O6" s="331">
         <f>IF(SUM(E5:N5)=0,"",SUM(E5:N5))</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="P6" s="307"/>
-      <c r="Q6" s="313"/>
-      <c r="R6" s="313"/>
-      <c r="S6" s="313"/>
-      <c r="T6" s="313"/>
+      <c r="Q6" s="313" t="s">
+        <v>254</v>
+      </c>
+      <c r="R6" s="313" t="s">
+        <v>255</v>
+      </c>
+      <c r="S6" s="313" t="s">
+        <v>256</v>
+      </c>
+      <c r="T6" s="313" t="s">
+        <v>257</v>
+      </c>
       <c r="U6" s="313"/>
       <c r="V6" s="313"/>
       <c r="W6" s="313"/>
       <c r="X6" s="313"/>
       <c r="Y6" s="313"/>
       <c r="Z6" s="313"/>
-      <c r="AA6" s="358" t="str">
+      <c r="AA6" s="358">
         <f>IF(SUM(Q5:Z5)=0,"",SUM(Q5:Z5))</f>
-        <v/>
+        <v>200</v>
       </c>
       <c r="AB6" s="307"/>
       <c r="AC6" s="365">
@@ -20036,54 +20094,72 @@
         <f>CRS!D9</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
+      <c r="E9" s="109">
+        <v>15</v>
+      </c>
+      <c r="F9" s="109">
+        <v>20</v>
+      </c>
+      <c r="G9" s="109">
+        <v>20</v>
+      </c>
+      <c r="H9" s="109">
+        <v>10</v>
+      </c>
       <c r="I9" s="109"/>
       <c r="J9" s="109"/>
       <c r="K9" s="109"/>
       <c r="L9" s="109"/>
       <c r="M9" s="109"/>
       <c r="N9" s="109"/>
-      <c r="O9" s="60" t="str">
+      <c r="O9" s="60">
         <f>IF(SUM(E9:N9)=0,"",SUM(E9:N9))</f>
-        <v/>
-      </c>
-      <c r="P9" s="67" t="str">
+        <v>65</v>
+      </c>
+      <c r="P9" s="67">
         <f>IF(O9="","",O9/$O$6*100)</f>
-        <v/>
-      </c>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="Q9" s="109">
+        <v>50</v>
+      </c>
+      <c r="R9" s="109">
+        <v>50</v>
+      </c>
+      <c r="S9" s="109">
+        <v>35</v>
+      </c>
+      <c r="T9" s="109">
+        <v>35</v>
+      </c>
       <c r="U9" s="109"/>
       <c r="V9" s="109"/>
       <c r="W9" s="109"/>
       <c r="X9" s="109"/>
       <c r="Y9" s="109"/>
       <c r="Z9" s="109"/>
-      <c r="AA9" s="60" t="str">
+      <c r="AA9" s="60">
         <f>IF(SUM(Q9:Z9)=0,"",SUM(Q9:Z9))</f>
-        <v/>
-      </c>
-      <c r="AB9" s="67" t="str">
+        <v>170</v>
+      </c>
+      <c r="AB9" s="67">
         <f>IF(AA9="","",AA9/$AA$6*100)</f>
-        <v/>
-      </c>
-      <c r="AC9" s="111"/>
-      <c r="AD9" s="67" t="str">
+        <v>85</v>
+      </c>
+      <c r="AC9" s="111">
+        <v>80</v>
+      </c>
+      <c r="AD9" s="67">
         <f>IF(AC9="","",AC9/$AC$5*100)</f>
-        <v/>
-      </c>
-      <c r="AE9" s="66" t="str">
+        <v>88.888888888888886</v>
+      </c>
+      <c r="AE9" s="66">
         <f>CRS!H9</f>
-        <v/>
-      </c>
-      <c r="AF9" s="64" t="str">
+        <v>86.872222222222234</v>
+      </c>
+      <c r="AF9" s="64">
         <f>CRS!I9</f>
-        <v/>
+        <v>93</v>
       </c>
       <c r="AG9" s="61"/>
       <c r="AH9" s="61"/>
@@ -20107,54 +20183,72 @@
         <f>CRS!D10</f>
         <v>BSCS-DIGITAL ARTS TRACK-2</v>
       </c>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
+      <c r="E10" s="109">
+        <v>0</v>
+      </c>
+      <c r="F10" s="109">
+        <v>11.5</v>
+      </c>
+      <c r="G10" s="109">
+        <v>11.5</v>
+      </c>
+      <c r="H10" s="109">
+        <v>10</v>
+      </c>
       <c r="I10" s="109"/>
       <c r="J10" s="109"/>
       <c r="K10" s="109"/>
       <c r="L10" s="109"/>
       <c r="M10" s="109"/>
       <c r="N10" s="109"/>
-      <c r="O10" s="60" t="str">
+      <c r="O10" s="60">
         <f t="shared" ref="O10:O40" si="0">IF(SUM(E10:N10)=0,"",SUM(E10:N10))</f>
-        <v/>
-      </c>
-      <c r="P10" s="67" t="str">
+        <v>33</v>
+      </c>
+      <c r="P10" s="67">
         <f t="shared" ref="P10:P40" si="1">IF(O10="","",O10/$O$6*100)</f>
-        <v/>
-      </c>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
+        <v>44</v>
+      </c>
+      <c r="Q10" s="109">
+        <v>50</v>
+      </c>
+      <c r="R10" s="109">
+        <v>50</v>
+      </c>
+      <c r="S10" s="109">
+        <v>25</v>
+      </c>
+      <c r="T10" s="109">
+        <v>25</v>
+      </c>
       <c r="U10" s="109"/>
       <c r="V10" s="109"/>
       <c r="W10" s="109"/>
       <c r="X10" s="109"/>
       <c r="Y10" s="109"/>
       <c r="Z10" s="109"/>
-      <c r="AA10" s="60" t="str">
+      <c r="AA10" s="60">
         <f t="shared" ref="AA10:AA40" si="2">IF(SUM(Q10:Z10)=0,"",SUM(Q10:Z10))</f>
-        <v/>
-      </c>
-      <c r="AB10" s="67" t="str">
+        <v>150</v>
+      </c>
+      <c r="AB10" s="67">
         <f t="shared" ref="AB10:AB40" si="3">IF(AA10="","",AA10/$AA$6*100)</f>
-        <v/>
-      </c>
-      <c r="AC10" s="111"/>
-      <c r="AD10" s="67" t="str">
+        <v>75</v>
+      </c>
+      <c r="AC10" s="111">
+        <v>46</v>
+      </c>
+      <c r="AD10" s="67">
         <f t="shared" ref="AD10:AD40" si="4">IF(AC10="","",AC10/$AC$5*100)</f>
-        <v/>
-      </c>
-      <c r="AE10" s="66" t="str">
+        <v>51.111111111111107</v>
+      </c>
+      <c r="AE10" s="66">
         <f>CRS!H10</f>
-        <v/>
-      </c>
-      <c r="AF10" s="64" t="str">
+        <v>56.647777777777776</v>
+      </c>
+      <c r="AF10" s="64">
         <f>CRS!I10</f>
-        <v/>
+        <v>78</v>
       </c>
       <c r="AG10" s="61"/>
       <c r="AH10" s="61"/>
@@ -20178,54 +20272,72 @@
         <f>CRS!D11</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
+      <c r="E11" s="109">
+        <v>10</v>
+      </c>
+      <c r="F11" s="109">
+        <v>15.5</v>
+      </c>
+      <c r="G11" s="109">
+        <v>15.5</v>
+      </c>
+      <c r="H11" s="109">
+        <v>10</v>
+      </c>
       <c r="I11" s="109"/>
       <c r="J11" s="109"/>
       <c r="K11" s="109"/>
       <c r="L11" s="109"/>
       <c r="M11" s="109"/>
       <c r="N11" s="109"/>
-      <c r="O11" s="60" t="str">
+      <c r="O11" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P11" s="67" t="str">
+        <v>51</v>
+      </c>
+      <c r="P11" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="109"/>
+        <v>68</v>
+      </c>
+      <c r="Q11" s="109">
+        <v>50</v>
+      </c>
+      <c r="R11" s="109">
+        <v>50</v>
+      </c>
+      <c r="S11" s="109">
+        <v>30</v>
+      </c>
+      <c r="T11" s="109">
+        <v>30</v>
+      </c>
       <c r="U11" s="109"/>
       <c r="V11" s="109"/>
       <c r="W11" s="109"/>
       <c r="X11" s="109"/>
       <c r="Y11" s="109"/>
       <c r="Z11" s="109"/>
-      <c r="AA11" s="60" t="str">
+      <c r="AA11" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB11" s="67" t="str">
+        <v>160</v>
+      </c>
+      <c r="AB11" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC11" s="111"/>
-      <c r="AD11" s="67" t="str">
+        <v>80</v>
+      </c>
+      <c r="AC11" s="111">
+        <v>62</v>
+      </c>
+      <c r="AD11" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE11" s="66" t="str">
+        <v>68.888888888888886</v>
+      </c>
+      <c r="AE11" s="66">
         <f>CRS!H11</f>
-        <v/>
-      </c>
-      <c r="AF11" s="64" t="str">
+        <v>72.262222222222221</v>
+      </c>
+      <c r="AF11" s="64">
         <f>CRS!I11</f>
-        <v/>
+        <v>86</v>
       </c>
       <c r="AG11" s="55"/>
       <c r="AH11" s="55"/>
@@ -20249,54 +20361,72 @@
         <f>CRS!D12</f>
         <v>BSIT-NET SEC TRACK-2</v>
       </c>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
+      <c r="E12" s="109">
+        <v>15</v>
+      </c>
+      <c r="F12" s="109">
+        <v>17</v>
+      </c>
+      <c r="G12" s="109">
+        <v>17</v>
+      </c>
+      <c r="H12" s="109">
+        <v>10</v>
+      </c>
       <c r="I12" s="109"/>
       <c r="J12" s="109"/>
       <c r="K12" s="109"/>
       <c r="L12" s="109"/>
       <c r="M12" s="109"/>
       <c r="N12" s="109"/>
-      <c r="O12" s="60" t="str">
+      <c r="O12" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P12" s="67" t="str">
+        <v>59</v>
+      </c>
+      <c r="P12" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="109"/>
-      <c r="S12" s="109"/>
-      <c r="T12" s="109"/>
+        <v>78.666666666666657</v>
+      </c>
+      <c r="Q12" s="109">
+        <v>50</v>
+      </c>
+      <c r="R12" s="109">
+        <v>50</v>
+      </c>
+      <c r="S12" s="109">
+        <v>35</v>
+      </c>
+      <c r="T12" s="109">
+        <v>35</v>
+      </c>
       <c r="U12" s="109"/>
       <c r="V12" s="109"/>
       <c r="W12" s="109"/>
       <c r="X12" s="109"/>
       <c r="Y12" s="109"/>
       <c r="Z12" s="109"/>
-      <c r="AA12" s="60" t="str">
+      <c r="AA12" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB12" s="67" t="str">
+        <v>170</v>
+      </c>
+      <c r="AB12" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC12" s="111"/>
-      <c r="AD12" s="67" t="str">
+        <v>85</v>
+      </c>
+      <c r="AC12" s="111">
+        <v>68</v>
+      </c>
+      <c r="AD12" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE12" s="66" t="str">
+        <v>75.555555555555557</v>
+      </c>
+      <c r="AE12" s="66">
         <f>CRS!H12</f>
-        <v/>
-      </c>
-      <c r="AF12" s="64" t="str">
+        <v>79.698888888888888</v>
+      </c>
+      <c r="AF12" s="64">
         <f>CRS!I12</f>
-        <v/>
+        <v>90</v>
       </c>
       <c r="AG12" s="55"/>
       <c r="AH12" s="55"/>
@@ -20320,54 +20450,72 @@
         <f>CRS!D13</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
+      <c r="E13" s="109">
+        <v>15</v>
+      </c>
+      <c r="F13" s="109">
+        <v>19.5</v>
+      </c>
+      <c r="G13" s="109">
+        <v>19.5</v>
+      </c>
+      <c r="H13" s="109">
+        <v>10</v>
+      </c>
       <c r="I13" s="109"/>
       <c r="J13" s="109"/>
       <c r="K13" s="109"/>
       <c r="L13" s="109"/>
       <c r="M13" s="109"/>
       <c r="N13" s="109"/>
-      <c r="O13" s="60" t="str">
+      <c r="O13" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P13" s="67" t="str">
+        <v>64</v>
+      </c>
+      <c r="P13" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q13" s="109"/>
-      <c r="R13" s="109"/>
-      <c r="S13" s="109"/>
-      <c r="T13" s="109"/>
+        <v>85.333333333333343</v>
+      </c>
+      <c r="Q13" s="109">
+        <v>50</v>
+      </c>
+      <c r="R13" s="109">
+        <v>50</v>
+      </c>
+      <c r="S13" s="109">
+        <v>35</v>
+      </c>
+      <c r="T13" s="109">
+        <v>35</v>
+      </c>
       <c r="U13" s="109"/>
       <c r="V13" s="109"/>
       <c r="W13" s="109"/>
       <c r="X13" s="109"/>
       <c r="Y13" s="109"/>
       <c r="Z13" s="109"/>
-      <c r="AA13" s="60" t="str">
+      <c r="AA13" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB13" s="67" t="str">
+        <v>170</v>
+      </c>
+      <c r="AB13" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC13" s="111"/>
-      <c r="AD13" s="67" t="str">
+        <v>85</v>
+      </c>
+      <c r="AC13" s="111">
+        <v>78</v>
+      </c>
+      <c r="AD13" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE13" s="66" t="str">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="AE13" s="66">
         <f>CRS!H13</f>
-        <v/>
-      </c>
-      <c r="AF13" s="64" t="str">
+        <v>85.676666666666677</v>
+      </c>
+      <c r="AF13" s="64">
         <f>CRS!I13</f>
-        <v/>
+        <v>93</v>
       </c>
       <c r="AG13" s="55"/>
       <c r="AH13" s="55"/>
@@ -20391,54 +20539,72 @@
         <f>CRS!D14</f>
         <v>BSCS-DIGITAL ARTS TRACK-1</v>
       </c>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
+      <c r="E14" s="109">
+        <v>10</v>
+      </c>
+      <c r="F14" s="109">
+        <v>16.5</v>
+      </c>
+      <c r="G14" s="109">
+        <v>16.5</v>
+      </c>
+      <c r="H14" s="109">
+        <v>10</v>
+      </c>
       <c r="I14" s="109"/>
       <c r="J14" s="109"/>
       <c r="K14" s="109"/>
       <c r="L14" s="109"/>
       <c r="M14" s="109"/>
       <c r="N14" s="109"/>
-      <c r="O14" s="60" t="str">
+      <c r="O14" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P14" s="67" t="str">
+        <v>53</v>
+      </c>
+      <c r="P14" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q14" s="109"/>
-      <c r="R14" s="109"/>
-      <c r="S14" s="109"/>
-      <c r="T14" s="109"/>
+        <v>70.666666666666671</v>
+      </c>
+      <c r="Q14" s="109">
+        <v>50</v>
+      </c>
+      <c r="R14" s="109">
+        <v>50</v>
+      </c>
+      <c r="S14" s="109">
+        <v>40</v>
+      </c>
+      <c r="T14" s="109">
+        <v>40</v>
+      </c>
       <c r="U14" s="109"/>
       <c r="V14" s="109"/>
       <c r="W14" s="109"/>
       <c r="X14" s="109"/>
       <c r="Y14" s="109"/>
       <c r="Z14" s="109"/>
-      <c r="AA14" s="60" t="str">
+      <c r="AA14" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB14" s="67" t="str">
+        <v>180</v>
+      </c>
+      <c r="AB14" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC14" s="111"/>
-      <c r="AD14" s="67" t="str">
+        <v>90</v>
+      </c>
+      <c r="AC14" s="111">
+        <v>66</v>
+      </c>
+      <c r="AD14" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE14" s="66" t="str">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="AE14" s="66">
         <f>CRS!H14</f>
-        <v/>
-      </c>
-      <c r="AF14" s="64" t="str">
+        <v>77.953333333333347</v>
+      </c>
+      <c r="AF14" s="64">
         <f>CRS!I14</f>
-        <v/>
+        <v>89</v>
       </c>
       <c r="AG14" s="55"/>
       <c r="AH14" s="55"/>
@@ -20462,54 +20628,72 @@
         <f>CRS!D15</f>
         <v>BSIT-WEB TRACK-2</v>
       </c>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
+      <c r="E15" s="109">
+        <v>10</v>
+      </c>
+      <c r="F15" s="109">
+        <v>15</v>
+      </c>
+      <c r="G15" s="109">
+        <v>15</v>
+      </c>
+      <c r="H15" s="109">
+        <v>10</v>
+      </c>
       <c r="I15" s="109"/>
       <c r="J15" s="109"/>
       <c r="K15" s="109"/>
       <c r="L15" s="109"/>
       <c r="M15" s="109"/>
       <c r="N15" s="109"/>
-      <c r="O15" s="60" t="str">
+      <c r="O15" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P15" s="67" t="str">
+        <v>50</v>
+      </c>
+      <c r="P15" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q15" s="109"/>
-      <c r="R15" s="109"/>
-      <c r="S15" s="109"/>
-      <c r="T15" s="109"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="Q15" s="109">
+        <v>50</v>
+      </c>
+      <c r="R15" s="109">
+        <v>50</v>
+      </c>
+      <c r="S15" s="109">
+        <v>37</v>
+      </c>
+      <c r="T15" s="109">
+        <v>37</v>
+      </c>
       <c r="U15" s="109"/>
       <c r="V15" s="109"/>
       <c r="W15" s="109"/>
       <c r="X15" s="109"/>
       <c r="Y15" s="109"/>
       <c r="Z15" s="109"/>
-      <c r="AA15" s="60" t="str">
+      <c r="AA15" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB15" s="67" t="str">
+        <v>174</v>
+      </c>
+      <c r="AB15" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC15" s="111"/>
-      <c r="AD15" s="67" t="str">
+        <v>87</v>
+      </c>
+      <c r="AC15" s="111">
+        <v>32</v>
+      </c>
+      <c r="AD15" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE15" s="66" t="str">
+        <v>35.555555555555557</v>
+      </c>
+      <c r="AE15" s="66">
         <f>CRS!H15</f>
-        <v/>
-      </c>
-      <c r="AF15" s="64" t="str">
+        <v>62.798888888888882</v>
+      </c>
+      <c r="AF15" s="64">
         <f>CRS!I15</f>
-        <v/>
+        <v>81</v>
       </c>
       <c r="AG15" s="55"/>
       <c r="AH15" s="55"/>
@@ -20533,54 +20717,72 @@
         <f>CRS!D16</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
+      <c r="E16" s="109">
+        <v>15</v>
+      </c>
+      <c r="F16" s="109">
+        <v>15.5</v>
+      </c>
+      <c r="G16" s="109">
+        <v>15.5</v>
+      </c>
+      <c r="H16" s="109">
+        <v>10</v>
+      </c>
       <c r="I16" s="109"/>
       <c r="J16" s="109"/>
       <c r="K16" s="109"/>
       <c r="L16" s="109"/>
       <c r="M16" s="109"/>
       <c r="N16" s="109"/>
-      <c r="O16" s="60" t="str">
+      <c r="O16" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P16" s="67" t="str">
+        <v>56</v>
+      </c>
+      <c r="P16" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q16" s="109"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="109"/>
-      <c r="T16" s="109"/>
+        <v>74.666666666666671</v>
+      </c>
+      <c r="Q16" s="109">
+        <v>50</v>
+      </c>
+      <c r="R16" s="109">
+        <v>50</v>
+      </c>
+      <c r="S16" s="109">
+        <v>35</v>
+      </c>
+      <c r="T16" s="109">
+        <v>35</v>
+      </c>
       <c r="U16" s="109"/>
       <c r="V16" s="109"/>
       <c r="W16" s="109"/>
       <c r="X16" s="109"/>
       <c r="Y16" s="109"/>
       <c r="Z16" s="109"/>
-      <c r="AA16" s="60" t="str">
+      <c r="AA16" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB16" s="67" t="str">
+        <v>170</v>
+      </c>
+      <c r="AB16" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC16" s="111"/>
-      <c r="AD16" s="67" t="str">
+        <v>85</v>
+      </c>
+      <c r="AC16" s="111">
+        <v>62</v>
+      </c>
+      <c r="AD16" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE16" s="66" t="str">
+        <v>68.888888888888886</v>
+      </c>
+      <c r="AE16" s="66">
         <f>CRS!H16</f>
-        <v/>
-      </c>
-      <c r="AF16" s="64" t="str">
+        <v>76.112222222222229</v>
+      </c>
+      <c r="AF16" s="64">
         <f>CRS!I16</f>
-        <v/>
+        <v>88</v>
       </c>
       <c r="AG16" s="55"/>
       <c r="AH16" s="55"/>
@@ -20604,54 +20806,72 @@
         <f>CRS!D17</f>
         <v>BSIT-NET SEC TRACK-2</v>
       </c>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
+      <c r="E17" s="109">
+        <v>15</v>
+      </c>
+      <c r="F17" s="109">
+        <v>17</v>
+      </c>
+      <c r="G17" s="109">
+        <v>17</v>
+      </c>
+      <c r="H17" s="109">
+        <v>10</v>
+      </c>
       <c r="I17" s="109"/>
       <c r="J17" s="109"/>
       <c r="K17" s="109"/>
       <c r="L17" s="109"/>
       <c r="M17" s="109"/>
       <c r="N17" s="109"/>
-      <c r="O17" s="60" t="str">
+      <c r="O17" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P17" s="67" t="str">
+        <v>59</v>
+      </c>
+      <c r="P17" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q17" s="109"/>
-      <c r="R17" s="109"/>
-      <c r="S17" s="109"/>
-      <c r="T17" s="109"/>
+        <v>78.666666666666657</v>
+      </c>
+      <c r="Q17" s="109">
+        <v>50</v>
+      </c>
+      <c r="R17" s="109">
+        <v>50</v>
+      </c>
+      <c r="S17" s="109">
+        <v>40</v>
+      </c>
+      <c r="T17" s="109">
+        <v>40</v>
+      </c>
       <c r="U17" s="109"/>
       <c r="V17" s="109"/>
       <c r="W17" s="109"/>
       <c r="X17" s="109"/>
       <c r="Y17" s="109"/>
       <c r="Z17" s="109"/>
-      <c r="AA17" s="60" t="str">
+      <c r="AA17" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB17" s="67" t="str">
+        <v>180</v>
+      </c>
+      <c r="AB17" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC17" s="111"/>
-      <c r="AD17" s="67" t="str">
+        <v>90</v>
+      </c>
+      <c r="AC17" s="111">
+        <v>68</v>
+      </c>
+      <c r="AD17" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE17" s="66" t="str">
+        <v>75.555555555555557</v>
+      </c>
+      <c r="AE17" s="66">
         <f>CRS!H17</f>
-        <v/>
-      </c>
-      <c r="AF17" s="64" t="str">
+        <v>81.348888888888894</v>
+      </c>
+      <c r="AF17" s="64">
         <f>CRS!I17</f>
-        <v/>
+        <v>91</v>
       </c>
       <c r="AG17" s="55"/>
       <c r="AH17" s="55"/>
@@ -20672,54 +20892,72 @@
         <f>CRS!D18</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
+      <c r="E18" s="109">
+        <v>15</v>
+      </c>
+      <c r="F18" s="109">
+        <v>10.5</v>
+      </c>
+      <c r="G18" s="109">
+        <v>10.5</v>
+      </c>
+      <c r="H18" s="109">
+        <v>10</v>
+      </c>
       <c r="I18" s="109"/>
       <c r="J18" s="109"/>
       <c r="K18" s="109"/>
       <c r="L18" s="109"/>
       <c r="M18" s="109"/>
       <c r="N18" s="109"/>
-      <c r="O18" s="60" t="str">
+      <c r="O18" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P18" s="67" t="str">
+        <v>46</v>
+      </c>
+      <c r="P18" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q18" s="109"/>
-      <c r="R18" s="109"/>
-      <c r="S18" s="109"/>
-      <c r="T18" s="109"/>
+        <v>61.333333333333329</v>
+      </c>
+      <c r="Q18" s="109">
+        <v>50</v>
+      </c>
+      <c r="R18" s="109">
+        <v>50</v>
+      </c>
+      <c r="S18" s="109">
+        <v>40</v>
+      </c>
+      <c r="T18" s="109">
+        <v>40</v>
+      </c>
       <c r="U18" s="109"/>
       <c r="V18" s="109"/>
       <c r="W18" s="109"/>
       <c r="X18" s="109"/>
       <c r="Y18" s="109"/>
       <c r="Z18" s="109"/>
-      <c r="AA18" s="60" t="str">
+      <c r="AA18" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB18" s="67" t="str">
+        <v>180</v>
+      </c>
+      <c r="AB18" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC18" s="111"/>
-      <c r="AD18" s="67" t="str">
+        <v>90</v>
+      </c>
+      <c r="AC18" s="111">
+        <v>42</v>
+      </c>
+      <c r="AD18" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE18" s="66" t="str">
+        <v>46.666666666666664</v>
+      </c>
+      <c r="AE18" s="66">
         <f>CRS!H18</f>
-        <v/>
-      </c>
-      <c r="AF18" s="64" t="str">
+        <v>65.806666666666672</v>
+      </c>
+      <c r="AF18" s="64">
         <f>CRS!I18</f>
-        <v/>
+        <v>83</v>
       </c>
       <c r="AG18" s="55"/>
       <c r="AH18" s="55"/>
@@ -20741,53 +20979,69 @@
         <v>BSIT-WEB TRACK-2</v>
       </c>
       <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
+      <c r="F19" s="109">
+        <v>13</v>
+      </c>
+      <c r="G19" s="109">
+        <v>13</v>
+      </c>
+      <c r="H19" s="109">
+        <v>10</v>
+      </c>
       <c r="I19" s="109"/>
       <c r="J19" s="109"/>
       <c r="K19" s="109"/>
       <c r="L19" s="109"/>
       <c r="M19" s="109"/>
       <c r="N19" s="109"/>
-      <c r="O19" s="60" t="str">
+      <c r="O19" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P19" s="67" t="str">
+        <v>36</v>
+      </c>
+      <c r="P19" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q19" s="109"/>
-      <c r="R19" s="109"/>
-      <c r="S19" s="109"/>
-      <c r="T19" s="109"/>
+        <v>48</v>
+      </c>
+      <c r="Q19" s="109">
+        <v>50</v>
+      </c>
+      <c r="R19" s="109">
+        <v>50</v>
+      </c>
+      <c r="S19" s="109">
+        <v>30</v>
+      </c>
+      <c r="T19" s="109">
+        <v>30</v>
+      </c>
       <c r="U19" s="109"/>
       <c r="V19" s="109"/>
       <c r="W19" s="109"/>
       <c r="X19" s="109"/>
       <c r="Y19" s="109"/>
       <c r="Z19" s="109"/>
-      <c r="AA19" s="60" t="str">
+      <c r="AA19" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB19" s="67" t="str">
+        <v>160</v>
+      </c>
+      <c r="AB19" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC19" s="111"/>
-      <c r="AD19" s="67" t="str">
+        <v>80</v>
+      </c>
+      <c r="AC19" s="111">
+        <v>52</v>
+      </c>
+      <c r="AD19" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE19" s="66" t="str">
+        <v>57.777777777777771</v>
+      </c>
+      <c r="AE19" s="66">
         <f>CRS!H19</f>
-        <v/>
-      </c>
-      <c r="AF19" s="64" t="str">
+        <v>61.884444444444441</v>
+      </c>
+      <c r="AF19" s="64">
         <f>CRS!I19</f>
-        <v/>
+        <v>81</v>
       </c>
       <c r="AG19" s="55"/>
       <c r="AH19" s="55"/>
@@ -20808,54 +21062,72 @@
         <f>CRS!D20</f>
         <v>BSIT-BA TRACK-1</v>
       </c>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
+      <c r="E20" s="109">
+        <v>15</v>
+      </c>
+      <c r="F20" s="109">
+        <v>12</v>
+      </c>
+      <c r="G20" s="109">
+        <v>12</v>
+      </c>
+      <c r="H20" s="109">
+        <v>10</v>
+      </c>
       <c r="I20" s="109"/>
       <c r="J20" s="109"/>
       <c r="K20" s="109"/>
       <c r="L20" s="109"/>
       <c r="M20" s="109"/>
       <c r="N20" s="109"/>
-      <c r="O20" s="60" t="str">
+      <c r="O20" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P20" s="67" t="str">
+        <v>49</v>
+      </c>
+      <c r="P20" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q20" s="109"/>
-      <c r="R20" s="109"/>
-      <c r="S20" s="109"/>
-      <c r="T20" s="109"/>
+        <v>65.333333333333329</v>
+      </c>
+      <c r="Q20" s="109">
+        <v>50</v>
+      </c>
+      <c r="R20" s="109">
+        <v>50</v>
+      </c>
+      <c r="S20" s="109">
+        <v>25</v>
+      </c>
+      <c r="T20" s="109">
+        <v>25</v>
+      </c>
       <c r="U20" s="109"/>
       <c r="V20" s="109"/>
       <c r="W20" s="109"/>
       <c r="X20" s="109"/>
       <c r="Y20" s="109"/>
       <c r="Z20" s="109"/>
-      <c r="AA20" s="60" t="str">
+      <c r="AA20" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB20" s="67" t="str">
+        <v>150</v>
+      </c>
+      <c r="AB20" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC20" s="111"/>
-      <c r="AD20" s="67" t="str">
+        <v>75</v>
+      </c>
+      <c r="AC20" s="111">
+        <v>48</v>
+      </c>
+      <c r="AD20" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE20" s="66" t="str">
+        <v>53.333333333333336</v>
+      </c>
+      <c r="AE20" s="66">
         <f>CRS!H20</f>
-        <v/>
-      </c>
-      <c r="AF20" s="64" t="str">
+        <v>64.443333333333342</v>
+      </c>
+      <c r="AF20" s="64">
         <f>CRS!I20</f>
-        <v/>
+        <v>82</v>
       </c>
       <c r="AG20" s="55"/>
       <c r="AH20" s="55"/>
@@ -20876,54 +21148,72 @@
         <f>CRS!D21</f>
         <v>BSIT-WEB TRACK-2</v>
       </c>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
+      <c r="E21" s="109">
+        <v>15</v>
+      </c>
+      <c r="F21" s="109">
+        <v>12</v>
+      </c>
+      <c r="G21" s="109">
+        <v>12</v>
+      </c>
+      <c r="H21" s="109">
+        <v>10</v>
+      </c>
       <c r="I21" s="109"/>
       <c r="J21" s="109"/>
       <c r="K21" s="109"/>
       <c r="L21" s="109"/>
       <c r="M21" s="109"/>
       <c r="N21" s="109"/>
-      <c r="O21" s="60" t="str">
+      <c r="O21" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P21" s="67" t="str">
+        <v>49</v>
+      </c>
+      <c r="P21" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q21" s="109"/>
-      <c r="R21" s="109"/>
-      <c r="S21" s="109"/>
-      <c r="T21" s="109"/>
+        <v>65.333333333333329</v>
+      </c>
+      <c r="Q21" s="109">
+        <v>50</v>
+      </c>
+      <c r="R21" s="109">
+        <v>50</v>
+      </c>
+      <c r="S21" s="109">
+        <v>35</v>
+      </c>
+      <c r="T21" s="109">
+        <v>35</v>
+      </c>
       <c r="U21" s="109"/>
       <c r="V21" s="109"/>
       <c r="W21" s="109"/>
       <c r="X21" s="109"/>
       <c r="Y21" s="109"/>
       <c r="Z21" s="109"/>
-      <c r="AA21" s="60" t="str">
+      <c r="AA21" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB21" s="67" t="str">
+        <v>170</v>
+      </c>
+      <c r="AB21" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC21" s="111"/>
-      <c r="AD21" s="67" t="str">
+        <v>85</v>
+      </c>
+      <c r="AC21" s="111">
+        <v>48</v>
+      </c>
+      <c r="AD21" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE21" s="66" t="str">
+        <v>53.333333333333336</v>
+      </c>
+      <c r="AE21" s="66">
         <f>CRS!H21</f>
-        <v/>
-      </c>
-      <c r="AF21" s="64" t="str">
+        <v>67.743333333333339</v>
+      </c>
+      <c r="AF21" s="64">
         <f>CRS!I21</f>
-        <v/>
+        <v>84</v>
       </c>
       <c r="AG21" s="55"/>
       <c r="AH21" s="55"/>
@@ -20944,54 +21234,72 @@
         <f>CRS!D22</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
+      <c r="E22" s="109">
+        <v>15</v>
+      </c>
+      <c r="F22" s="109">
+        <v>18.5</v>
+      </c>
+      <c r="G22" s="109">
+        <v>18.5</v>
+      </c>
+      <c r="H22" s="109">
+        <v>10</v>
+      </c>
       <c r="I22" s="109"/>
       <c r="J22" s="109"/>
       <c r="K22" s="109"/>
       <c r="L22" s="109"/>
       <c r="M22" s="109"/>
       <c r="N22" s="109"/>
-      <c r="O22" s="60" t="str">
+      <c r="O22" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P22" s="67" t="str">
+        <v>62</v>
+      </c>
+      <c r="P22" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q22" s="109"/>
-      <c r="R22" s="109"/>
-      <c r="S22" s="109"/>
-      <c r="T22" s="109"/>
+        <v>82.666666666666671</v>
+      </c>
+      <c r="Q22" s="109">
+        <v>50</v>
+      </c>
+      <c r="R22" s="109">
+        <v>50</v>
+      </c>
+      <c r="S22" s="109">
+        <v>37</v>
+      </c>
+      <c r="T22" s="109">
+        <v>37</v>
+      </c>
       <c r="U22" s="109"/>
       <c r="V22" s="109"/>
       <c r="W22" s="109"/>
       <c r="X22" s="109"/>
       <c r="Y22" s="109"/>
       <c r="Z22" s="109"/>
-      <c r="AA22" s="60" t="str">
+      <c r="AA22" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB22" s="67" t="str">
+        <v>174</v>
+      </c>
+      <c r="AB22" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC22" s="111"/>
-      <c r="AD22" s="67" t="str">
+        <v>87</v>
+      </c>
+      <c r="AC22" s="111">
+        <v>74</v>
+      </c>
+      <c r="AD22" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE22" s="66" t="str">
+        <v>82.222222222222214</v>
+      </c>
+      <c r="AE22" s="66">
         <f>CRS!H22</f>
-        <v/>
-      </c>
-      <c r="AF22" s="64" t="str">
+        <v>83.945555555555558</v>
+      </c>
+      <c r="AF22" s="64">
         <f>CRS!I22</f>
-        <v/>
+        <v>92</v>
       </c>
       <c r="AG22" s="55"/>
       <c r="AH22" s="55"/>
@@ -21012,54 +21320,72 @@
         <f>CRS!D23</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="109"/>
+      <c r="E23" s="109">
+        <v>0</v>
+      </c>
+      <c r="F23" s="109">
+        <v>17</v>
+      </c>
+      <c r="G23" s="109">
+        <v>17</v>
+      </c>
+      <c r="H23" s="109">
+        <v>10</v>
+      </c>
       <c r="I23" s="109"/>
       <c r="J23" s="109"/>
       <c r="K23" s="109"/>
       <c r="L23" s="109"/>
       <c r="M23" s="109"/>
       <c r="N23" s="109"/>
-      <c r="O23" s="60" t="str">
+      <c r="O23" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P23" s="67" t="str">
+        <v>44</v>
+      </c>
+      <c r="P23" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q23" s="109"/>
-      <c r="R23" s="109"/>
-      <c r="S23" s="109"/>
-      <c r="T23" s="109"/>
+        <v>58.666666666666664</v>
+      </c>
+      <c r="Q23" s="109">
+        <v>50</v>
+      </c>
+      <c r="R23" s="109">
+        <v>50</v>
+      </c>
+      <c r="S23" s="109">
+        <v>35</v>
+      </c>
+      <c r="T23" s="109">
+        <v>35</v>
+      </c>
       <c r="U23" s="109"/>
       <c r="V23" s="109"/>
       <c r="W23" s="109"/>
       <c r="X23" s="109"/>
       <c r="Y23" s="109"/>
       <c r="Z23" s="109"/>
-      <c r="AA23" s="60" t="str">
+      <c r="AA23" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB23" s="67" t="str">
+        <v>170</v>
+      </c>
+      <c r="AB23" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC23" s="111"/>
-      <c r="AD23" s="67" t="str">
+        <v>85</v>
+      </c>
+      <c r="AC23" s="111">
+        <v>68</v>
+      </c>
+      <c r="AD23" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE23" s="66" t="str">
+        <v>75.555555555555557</v>
+      </c>
+      <c r="AE23" s="66">
         <f>CRS!H23</f>
-        <v/>
-      </c>
-      <c r="AF23" s="64" t="str">
+        <v>73.098888888888894</v>
+      </c>
+      <c r="AF23" s="64">
         <f>CRS!I23</f>
-        <v/>
+        <v>87</v>
       </c>
       <c r="AG23" s="55"/>
       <c r="AH23" s="55"/>
@@ -21080,54 +21406,72 @@
         <f>CRS!D24</f>
         <v>BSCS-DIGITAL ARTS TRACK-2</v>
       </c>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
+      <c r="E24" s="109">
+        <v>0</v>
+      </c>
+      <c r="F24" s="109">
+        <v>14</v>
+      </c>
+      <c r="G24" s="109">
+        <v>14</v>
+      </c>
+      <c r="H24" s="109">
+        <v>10</v>
+      </c>
       <c r="I24" s="109"/>
       <c r="J24" s="109"/>
       <c r="K24" s="109"/>
       <c r="L24" s="109"/>
       <c r="M24" s="109"/>
       <c r="N24" s="109"/>
-      <c r="O24" s="60" t="str">
+      <c r="O24" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P24" s="67" t="str">
+        <v>38</v>
+      </c>
+      <c r="P24" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q24" s="109"/>
-      <c r="R24" s="109"/>
-      <c r="S24" s="109"/>
-      <c r="T24" s="109"/>
+        <v>50.666666666666671</v>
+      </c>
+      <c r="Q24" s="109">
+        <v>50</v>
+      </c>
+      <c r="R24" s="109">
+        <v>50</v>
+      </c>
+      <c r="S24" s="109">
+        <v>25</v>
+      </c>
+      <c r="T24" s="109">
+        <v>25</v>
+      </c>
       <c r="U24" s="109"/>
       <c r="V24" s="109"/>
       <c r="W24" s="109"/>
       <c r="X24" s="109"/>
       <c r="Y24" s="109"/>
       <c r="Z24" s="109"/>
-      <c r="AA24" s="60" t="str">
+      <c r="AA24" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB24" s="67" t="str">
+        <v>150</v>
+      </c>
+      <c r="AB24" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC24" s="111"/>
-      <c r="AD24" s="67" t="str">
+        <v>75</v>
+      </c>
+      <c r="AC24" s="111">
+        <v>56</v>
+      </c>
+      <c r="AD24" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE24" s="66" t="str">
+        <v>62.222222222222221</v>
+      </c>
+      <c r="AE24" s="66">
         <f>CRS!H24</f>
-        <v/>
-      </c>
-      <c r="AF24" s="64" t="str">
+        <v>62.625555555555557</v>
+      </c>
+      <c r="AF24" s="64">
         <f>CRS!I24</f>
-        <v/>
+        <v>81</v>
       </c>
       <c r="AG24" s="55"/>
       <c r="AH24" s="55"/>
@@ -21148,54 +21492,72 @@
         <f>CRS!D25</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
+      <c r="E25" s="109">
+        <v>10</v>
+      </c>
+      <c r="F25" s="109">
+        <v>17.5</v>
+      </c>
+      <c r="G25" s="109">
+        <v>17.5</v>
+      </c>
+      <c r="H25" s="109">
+        <v>10</v>
+      </c>
       <c r="I25" s="109"/>
       <c r="J25" s="109"/>
       <c r="K25" s="109"/>
       <c r="L25" s="109"/>
       <c r="M25" s="109"/>
       <c r="N25" s="109"/>
-      <c r="O25" s="60" t="str">
+      <c r="O25" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P25" s="67" t="str">
+        <v>55</v>
+      </c>
+      <c r="P25" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="109"/>
-      <c r="S25" s="109"/>
-      <c r="T25" s="109"/>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="Q25" s="109">
+        <v>50</v>
+      </c>
+      <c r="R25" s="109">
+        <v>50</v>
+      </c>
+      <c r="S25" s="109">
+        <v>35</v>
+      </c>
+      <c r="T25" s="109">
+        <v>35</v>
+      </c>
       <c r="U25" s="109"/>
       <c r="V25" s="109"/>
       <c r="W25" s="109"/>
       <c r="X25" s="109"/>
       <c r="Y25" s="109"/>
       <c r="Z25" s="109"/>
-      <c r="AA25" s="60" t="str">
+      <c r="AA25" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB25" s="67" t="str">
+        <v>170</v>
+      </c>
+      <c r="AB25" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC25" s="111"/>
-      <c r="AD25" s="67" t="str">
+        <v>85</v>
+      </c>
+      <c r="AC25" s="111">
+        <v>70</v>
+      </c>
+      <c r="AD25" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE25" s="66" t="str">
+        <v>77.777777777777786</v>
+      </c>
+      <c r="AE25" s="66">
         <f>CRS!H25</f>
-        <v/>
-      </c>
-      <c r="AF25" s="64" t="str">
+        <v>78.694444444444457</v>
+      </c>
+      <c r="AF25" s="64">
         <f>CRS!I25</f>
-        <v/>
+        <v>89</v>
       </c>
       <c r="AG25" s="55"/>
       <c r="AH25" s="55"/>
@@ -21216,54 +21578,72 @@
         <f>CRS!D26</f>
         <v>BSIT-NET SEC TRACK-2</v>
       </c>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
+      <c r="E26" s="109">
+        <v>10</v>
+      </c>
+      <c r="F26" s="109">
+        <v>10</v>
+      </c>
+      <c r="G26" s="109">
+        <v>10</v>
+      </c>
+      <c r="H26" s="109">
+        <v>10</v>
+      </c>
       <c r="I26" s="109"/>
       <c r="J26" s="109"/>
       <c r="K26" s="109"/>
       <c r="L26" s="109"/>
       <c r="M26" s="109"/>
       <c r="N26" s="109"/>
-      <c r="O26" s="60" t="str">
+      <c r="O26" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P26" s="67" t="str">
+        <v>40</v>
+      </c>
+      <c r="P26" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="109"/>
-      <c r="S26" s="109"/>
-      <c r="T26" s="109"/>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="Q26" s="109">
+        <v>50</v>
+      </c>
+      <c r="R26" s="109">
+        <v>42</v>
+      </c>
+      <c r="S26" s="109">
+        <v>35</v>
+      </c>
+      <c r="T26" s="109">
+        <v>35</v>
+      </c>
       <c r="U26" s="109"/>
       <c r="V26" s="109"/>
       <c r="W26" s="109"/>
       <c r="X26" s="109"/>
       <c r="Y26" s="109"/>
       <c r="Z26" s="109"/>
-      <c r="AA26" s="60" t="str">
+      <c r="AA26" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB26" s="67" t="str">
+        <v>162</v>
+      </c>
+      <c r="AB26" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC26" s="111"/>
-      <c r="AD26" s="67" t="str">
+        <v>81</v>
+      </c>
+      <c r="AC26" s="111">
+        <v>40</v>
+      </c>
+      <c r="AD26" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE26" s="66" t="str">
+        <v>44.444444444444443</v>
+      </c>
+      <c r="AE26" s="66">
         <f>CRS!H26</f>
-        <v/>
-      </c>
-      <c r="AF26" s="64" t="str">
+        <v>59.441111111111113</v>
+      </c>
+      <c r="AF26" s="64">
         <f>CRS!I26</f>
-        <v/>
+        <v>80</v>
       </c>
       <c r="AG26" s="300"/>
       <c r="AH26" s="298" t="s">
@@ -21286,54 +21666,72 @@
         <f>CRS!D27</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
+      <c r="E27" s="109">
+        <v>0</v>
+      </c>
+      <c r="F27" s="109">
+        <v>10</v>
+      </c>
+      <c r="G27" s="109">
+        <v>10</v>
+      </c>
+      <c r="H27" s="109">
+        <v>10</v>
+      </c>
       <c r="I27" s="109"/>
       <c r="J27" s="109"/>
       <c r="K27" s="109"/>
       <c r="L27" s="109"/>
       <c r="M27" s="109"/>
       <c r="N27" s="109"/>
-      <c r="O27" s="60" t="str">
+      <c r="O27" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P27" s="67" t="str">
+        <v>30</v>
+      </c>
+      <c r="P27" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q27" s="109"/>
-      <c r="R27" s="109"/>
-      <c r="S27" s="109"/>
-      <c r="T27" s="109"/>
+        <v>40</v>
+      </c>
+      <c r="Q27" s="109">
+        <v>50</v>
+      </c>
+      <c r="R27" s="109">
+        <v>50</v>
+      </c>
+      <c r="S27" s="109">
+        <v>37</v>
+      </c>
+      <c r="T27" s="109">
+        <v>37</v>
+      </c>
       <c r="U27" s="109"/>
       <c r="V27" s="109"/>
       <c r="W27" s="109"/>
       <c r="X27" s="109"/>
       <c r="Y27" s="109"/>
       <c r="Z27" s="109"/>
-      <c r="AA27" s="60" t="str">
+      <c r="AA27" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB27" s="67" t="str">
+        <v>174</v>
+      </c>
+      <c r="AB27" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC27" s="111"/>
-      <c r="AD27" s="67" t="str">
+        <v>87</v>
+      </c>
+      <c r="AC27" s="111">
+        <v>40</v>
+      </c>
+      <c r="AD27" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE27" s="66" t="str">
+        <v>44.444444444444443</v>
+      </c>
+      <c r="AE27" s="66">
         <f>CRS!H27</f>
-        <v/>
-      </c>
-      <c r="AF27" s="64" t="str">
+        <v>57.021111111111118</v>
+      </c>
+      <c r="AF27" s="64">
         <f>CRS!I27</f>
-        <v/>
+        <v>79</v>
       </c>
       <c r="AG27" s="301"/>
       <c r="AH27" s="299"/>
@@ -21354,54 +21752,72 @@
         <f>CRS!D28</f>
         <v>BSIT-WEB TRACK-2</v>
       </c>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
+      <c r="E28" s="109">
+        <v>10</v>
+      </c>
+      <c r="F28" s="109">
+        <v>17</v>
+      </c>
+      <c r="G28" s="109">
+        <v>17</v>
+      </c>
+      <c r="H28" s="109">
+        <v>10</v>
+      </c>
       <c r="I28" s="109"/>
       <c r="J28" s="109"/>
       <c r="K28" s="109"/>
       <c r="L28" s="109"/>
       <c r="M28" s="109"/>
       <c r="N28" s="109"/>
-      <c r="O28" s="60" t="str">
+      <c r="O28" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P28" s="67" t="str">
+        <v>54</v>
+      </c>
+      <c r="P28" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q28" s="109"/>
-      <c r="R28" s="109"/>
-      <c r="S28" s="109"/>
-      <c r="T28" s="109"/>
+        <v>72</v>
+      </c>
+      <c r="Q28" s="109">
+        <v>50</v>
+      </c>
+      <c r="R28" s="109">
+        <v>50</v>
+      </c>
+      <c r="S28" s="109">
+        <v>25</v>
+      </c>
+      <c r="T28" s="109">
+        <v>25</v>
+      </c>
       <c r="U28" s="109"/>
       <c r="V28" s="109"/>
       <c r="W28" s="109"/>
       <c r="X28" s="109"/>
       <c r="Y28" s="109"/>
       <c r="Z28" s="109"/>
-      <c r="AA28" s="60" t="str">
+      <c r="AA28" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB28" s="67" t="str">
+        <v>150</v>
+      </c>
+      <c r="AB28" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC28" s="111"/>
-      <c r="AD28" s="67" t="str">
+        <v>75</v>
+      </c>
+      <c r="AC28" s="111">
+        <v>68</v>
+      </c>
+      <c r="AD28" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE28" s="66" t="str">
+        <v>75.555555555555557</v>
+      </c>
+      <c r="AE28" s="66">
         <f>CRS!H28</f>
-        <v/>
-      </c>
-      <c r="AF28" s="64" t="str">
+        <v>74.198888888888888</v>
+      </c>
+      <c r="AF28" s="64">
         <f>CRS!I28</f>
-        <v/>
+        <v>87</v>
       </c>
       <c r="AG28" s="301"/>
       <c r="AH28" s="299"/>
@@ -21422,54 +21838,72 @@
         <f>CRS!D29</f>
         <v>BSIT-NET SEC TRACK-2</v>
       </c>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="109"/>
+      <c r="E29" s="109">
+        <v>15</v>
+      </c>
+      <c r="F29" s="109">
+        <v>16</v>
+      </c>
+      <c r="G29" s="109">
+        <v>16</v>
+      </c>
+      <c r="H29" s="109">
+        <v>10</v>
+      </c>
       <c r="I29" s="109"/>
       <c r="J29" s="109"/>
       <c r="K29" s="109"/>
       <c r="L29" s="109"/>
       <c r="M29" s="109"/>
       <c r="N29" s="109"/>
-      <c r="O29" s="60" t="str">
+      <c r="O29" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P29" s="67" t="str">
+        <v>57</v>
+      </c>
+      <c r="P29" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q29" s="109"/>
-      <c r="R29" s="109"/>
-      <c r="S29" s="109"/>
-      <c r="T29" s="109"/>
+        <v>76</v>
+      </c>
+      <c r="Q29" s="109">
+        <v>50</v>
+      </c>
+      <c r="R29" s="109">
+        <v>50</v>
+      </c>
+      <c r="S29" s="109">
+        <v>35</v>
+      </c>
+      <c r="T29" s="109">
+        <v>35</v>
+      </c>
       <c r="U29" s="109"/>
       <c r="V29" s="109"/>
       <c r="W29" s="109"/>
       <c r="X29" s="109"/>
       <c r="Y29" s="109"/>
       <c r="Z29" s="109"/>
-      <c r="AA29" s="60" t="str">
+      <c r="AA29" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB29" s="67" t="str">
+        <v>170</v>
+      </c>
+      <c r="AB29" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC29" s="111"/>
-      <c r="AD29" s="67" t="str">
+        <v>85</v>
+      </c>
+      <c r="AC29" s="111">
+        <v>64</v>
+      </c>
+      <c r="AD29" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE29" s="66" t="str">
+        <v>71.111111111111114</v>
+      </c>
+      <c r="AE29" s="66">
         <f>CRS!H29</f>
-        <v/>
-      </c>
-      <c r="AF29" s="64" t="str">
+        <v>77.307777777777787</v>
+      </c>
+      <c r="AF29" s="64">
         <f>CRS!I29</f>
-        <v/>
+        <v>89</v>
       </c>
       <c r="AG29" s="301"/>
       <c r="AH29" s="299"/>
@@ -21490,54 +21924,70 @@
         <f>CRS!D30</f>
         <v>BSIT-NET SEC TRACK-2</v>
       </c>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="109"/>
+      <c r="E30" s="109">
+        <v>10</v>
+      </c>
+      <c r="F30" s="109">
+        <v>13</v>
+      </c>
+      <c r="G30" s="109">
+        <v>13</v>
+      </c>
+      <c r="H30" s="109">
+        <v>10</v>
+      </c>
       <c r="I30" s="109"/>
       <c r="J30" s="109"/>
       <c r="K30" s="109"/>
       <c r="L30" s="109"/>
       <c r="M30" s="109"/>
       <c r="N30" s="109"/>
-      <c r="O30" s="60" t="str">
+      <c r="O30" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P30" s="67" t="str">
+        <v>46</v>
+      </c>
+      <c r="P30" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q30" s="109"/>
+        <v>61.333333333333329</v>
+      </c>
+      <c r="Q30" s="109">
+        <v>42</v>
+      </c>
       <c r="R30" s="109"/>
-      <c r="S30" s="109"/>
-      <c r="T30" s="109"/>
+      <c r="S30" s="109">
+        <v>30</v>
+      </c>
+      <c r="T30" s="109">
+        <v>30</v>
+      </c>
       <c r="U30" s="109"/>
       <c r="V30" s="109"/>
       <c r="W30" s="109"/>
       <c r="X30" s="109"/>
       <c r="Y30" s="109"/>
       <c r="Z30" s="109"/>
-      <c r="AA30" s="60" t="str">
+      <c r="AA30" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB30" s="67" t="str">
+        <v>102</v>
+      </c>
+      <c r="AB30" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC30" s="111"/>
-      <c r="AD30" s="67" t="str">
+        <v>51</v>
+      </c>
+      <c r="AC30" s="111">
+        <v>52</v>
+      </c>
+      <c r="AD30" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE30" s="66" t="str">
+        <v>57.777777777777771</v>
+      </c>
+      <c r="AE30" s="66">
         <f>CRS!H30</f>
-        <v/>
-      </c>
-      <c r="AF30" s="64" t="str">
+        <v>56.714444444444439</v>
+      </c>
+      <c r="AF30" s="64">
         <f>CRS!I30</f>
-        <v/>
+        <v>78</v>
       </c>
       <c r="AG30" s="301"/>
       <c r="AH30" s="299"/>
@@ -21559,53 +22009,65 @@
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
       <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
+      <c r="F31" s="109">
+        <v>14</v>
+      </c>
+      <c r="G31" s="109">
+        <v>14</v>
+      </c>
+      <c r="H31" s="109">
+        <v>10</v>
+      </c>
       <c r="I31" s="109"/>
       <c r="J31" s="109"/>
       <c r="K31" s="109"/>
       <c r="L31" s="109"/>
       <c r="M31" s="109"/>
       <c r="N31" s="109"/>
-      <c r="O31" s="60" t="str">
+      <c r="O31" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P31" s="67" t="str">
+        <v>38</v>
+      </c>
+      <c r="P31" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>50.666666666666671</v>
       </c>
       <c r="Q31" s="109"/>
       <c r="R31" s="109"/>
-      <c r="S31" s="109"/>
-      <c r="T31" s="109"/>
+      <c r="S31" s="109">
+        <v>5</v>
+      </c>
+      <c r="T31" s="109">
+        <v>5</v>
+      </c>
       <c r="U31" s="109"/>
       <c r="V31" s="109"/>
       <c r="W31" s="109"/>
       <c r="X31" s="109"/>
       <c r="Y31" s="109"/>
       <c r="Z31" s="109"/>
-      <c r="AA31" s="60" t="str">
+      <c r="AA31" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB31" s="67" t="str">
+        <v>10</v>
+      </c>
+      <c r="AB31" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC31" s="111"/>
-      <c r="AD31" s="67" t="str">
+        <v>5</v>
+      </c>
+      <c r="AC31" s="111">
+        <v>56</v>
+      </c>
+      <c r="AD31" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE31" s="66" t="str">
+        <v>62.222222222222221</v>
+      </c>
+      <c r="AE31" s="66">
         <f>CRS!H31</f>
-        <v/>
-      </c>
-      <c r="AF31" s="64" t="str">
+        <v>39.525555555555556</v>
+      </c>
+      <c r="AF31" s="64">
         <f>CRS!I31</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="AG31" s="301"/>
       <c r="AH31" s="299"/>
@@ -21626,54 +22088,72 @@
         <f>CRS!D32</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="109"/>
+      <c r="E32" s="109">
+        <v>0</v>
+      </c>
+      <c r="F32" s="109">
+        <v>15</v>
+      </c>
+      <c r="G32" s="109">
+        <v>15</v>
+      </c>
+      <c r="H32" s="109">
+        <v>10</v>
+      </c>
       <c r="I32" s="109"/>
       <c r="J32" s="109"/>
       <c r="K32" s="109"/>
       <c r="L32" s="109"/>
       <c r="M32" s="109"/>
       <c r="N32" s="109"/>
-      <c r="O32" s="60" t="str">
+      <c r="O32" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P32" s="67" t="str">
+        <v>40</v>
+      </c>
+      <c r="P32" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q32" s="109"/>
-      <c r="R32" s="109"/>
-      <c r="S32" s="109"/>
-      <c r="T32" s="109"/>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="Q32" s="109">
+        <v>50</v>
+      </c>
+      <c r="R32" s="109">
+        <v>42</v>
+      </c>
+      <c r="S32" s="109">
+        <v>5</v>
+      </c>
+      <c r="T32" s="109">
+        <v>5</v>
+      </c>
       <c r="U32" s="109"/>
       <c r="V32" s="109"/>
       <c r="W32" s="109"/>
       <c r="X32" s="109"/>
       <c r="Y32" s="109"/>
       <c r="Z32" s="109"/>
-      <c r="AA32" s="60" t="str">
+      <c r="AA32" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB32" s="67" t="str">
+        <v>102</v>
+      </c>
+      <c r="AB32" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC32" s="111"/>
-      <c r="AD32" s="67" t="str">
+        <v>51</v>
+      </c>
+      <c r="AC32" s="111">
+        <v>60</v>
+      </c>
+      <c r="AD32" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE32" s="66" t="str">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="AE32" s="66">
         <f>CRS!H32</f>
-        <v/>
-      </c>
-      <c r="AF32" s="64" t="str">
+        <v>57.096666666666671</v>
+      </c>
+      <c r="AF32" s="64">
         <f>CRS!I32</f>
-        <v/>
+        <v>79</v>
       </c>
       <c r="AG32" s="301"/>
       <c r="AH32" s="299"/>
@@ -21694,54 +22174,72 @@
         <f>CRS!D33</f>
         <v>BSCPE-4</v>
       </c>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="109"/>
+      <c r="E33" s="109">
+        <v>10</v>
+      </c>
+      <c r="F33" s="109">
+        <v>15</v>
+      </c>
+      <c r="G33" s="109">
+        <v>15</v>
+      </c>
+      <c r="H33" s="109">
+        <v>10</v>
+      </c>
       <c r="I33" s="109"/>
       <c r="J33" s="109"/>
       <c r="K33" s="109"/>
       <c r="L33" s="109"/>
       <c r="M33" s="109"/>
       <c r="N33" s="109"/>
-      <c r="O33" s="60" t="str">
+      <c r="O33" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P33" s="67" t="str">
+        <v>50</v>
+      </c>
+      <c r="P33" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q33" s="109"/>
-      <c r="R33" s="109"/>
-      <c r="S33" s="109"/>
-      <c r="T33" s="109"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="Q33" s="109">
+        <v>50</v>
+      </c>
+      <c r="R33" s="109">
+        <v>50</v>
+      </c>
+      <c r="S33" s="109">
+        <v>35</v>
+      </c>
+      <c r="T33" s="109">
+        <v>35</v>
+      </c>
       <c r="U33" s="109"/>
       <c r="V33" s="109"/>
       <c r="W33" s="109"/>
       <c r="X33" s="109"/>
       <c r="Y33" s="109"/>
       <c r="Z33" s="109"/>
-      <c r="AA33" s="60" t="str">
+      <c r="AA33" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB33" s="67" t="str">
+        <v>170</v>
+      </c>
+      <c r="AB33" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC33" s="111"/>
-      <c r="AD33" s="67" t="str">
+        <v>85</v>
+      </c>
+      <c r="AC33" s="111">
+        <v>60</v>
+      </c>
+      <c r="AD33" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE33" s="66" t="str">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="AE33" s="66">
         <f>CRS!H33</f>
-        <v/>
-      </c>
-      <c r="AF33" s="64" t="str">
+        <v>72.716666666666669</v>
+      </c>
+      <c r="AF33" s="64">
         <f>CRS!I33</f>
-        <v/>
+        <v>86</v>
       </c>
       <c r="AG33" s="301"/>
       <c r="AH33" s="299"/>
@@ -21785,34 +22283,38 @@
       </c>
       <c r="Q34" s="109"/>
       <c r="R34" s="109"/>
-      <c r="S34" s="109"/>
-      <c r="T34" s="109"/>
+      <c r="S34" s="109">
+        <v>5</v>
+      </c>
+      <c r="T34" s="109">
+        <v>5</v>
+      </c>
       <c r="U34" s="109"/>
       <c r="V34" s="109"/>
       <c r="W34" s="109"/>
       <c r="X34" s="109"/>
       <c r="Y34" s="109"/>
       <c r="Z34" s="109"/>
-      <c r="AA34" s="60" t="str">
+      <c r="AA34" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB34" s="67" t="str">
+        <v>10</v>
+      </c>
+      <c r="AB34" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="AC34" s="111"/>
       <c r="AD34" s="67" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AE34" s="66" t="str">
+      <c r="AE34" s="66">
         <f>CRS!H34</f>
-        <v/>
-      </c>
-      <c r="AF34" s="64" t="str">
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="AF34" s="64">
         <f>CRS!I34</f>
-        <v/>
+        <v>70</v>
       </c>
       <c r="AG34" s="301"/>
       <c r="AH34" s="299"/>
@@ -21836,54 +22338,72 @@
         <f>CRS!D35</f>
         <v>BSIT-WEB TRACK-2</v>
       </c>
-      <c r="E35" s="109"/>
-      <c r="F35" s="109"/>
-      <c r="G35" s="109"/>
-      <c r="H35" s="109"/>
+      <c r="E35" s="109">
+        <v>15</v>
+      </c>
+      <c r="F35" s="109">
+        <v>11</v>
+      </c>
+      <c r="G35" s="109">
+        <v>11</v>
+      </c>
+      <c r="H35" s="109">
+        <v>10</v>
+      </c>
       <c r="I35" s="109"/>
       <c r="J35" s="109"/>
       <c r="K35" s="109"/>
       <c r="L35" s="109"/>
       <c r="M35" s="109"/>
       <c r="N35" s="109"/>
-      <c r="O35" s="60" t="str">
+      <c r="O35" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P35" s="67" t="str">
+        <v>47</v>
+      </c>
+      <c r="P35" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q35" s="109"/>
-      <c r="R35" s="109"/>
-      <c r="S35" s="109"/>
-      <c r="T35" s="109"/>
+        <v>62.666666666666671</v>
+      </c>
+      <c r="Q35" s="109">
+        <v>50</v>
+      </c>
+      <c r="R35" s="109">
+        <v>50</v>
+      </c>
+      <c r="S35" s="109">
+        <v>30</v>
+      </c>
+      <c r="T35" s="109">
+        <v>30</v>
+      </c>
       <c r="U35" s="109"/>
       <c r="V35" s="109"/>
       <c r="W35" s="109"/>
       <c r="X35" s="109"/>
       <c r="Y35" s="109"/>
       <c r="Z35" s="109"/>
-      <c r="AA35" s="60" t="str">
+      <c r="AA35" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB35" s="67" t="str">
+        <v>160</v>
+      </c>
+      <c r="AB35" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC35" s="111"/>
-      <c r="AD35" s="67" t="str">
+        <v>80</v>
+      </c>
+      <c r="AC35" s="111">
+        <v>44</v>
+      </c>
+      <c r="AD35" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE35" s="66" t="str">
+        <v>48.888888888888886</v>
+      </c>
+      <c r="AE35" s="66">
         <f>CRS!H35</f>
-        <v/>
-      </c>
-      <c r="AF35" s="64" t="str">
+        <v>63.702222222222233</v>
+      </c>
+      <c r="AF35" s="64">
         <f>CRS!I35</f>
-        <v/>
+        <v>82</v>
       </c>
       <c r="AG35" s="301"/>
       <c r="AH35" s="299"/>
@@ -21907,54 +22427,72 @@
         <f>CRS!D36</f>
         <v>BSCS-DIGITAL ARTS TRACK-2</v>
       </c>
-      <c r="E36" s="109"/>
-      <c r="F36" s="109"/>
-      <c r="G36" s="109"/>
-      <c r="H36" s="109"/>
+      <c r="E36" s="109">
+        <v>10</v>
+      </c>
+      <c r="F36" s="109">
+        <v>4</v>
+      </c>
+      <c r="G36" s="109">
+        <v>4</v>
+      </c>
+      <c r="H36" s="109">
+        <v>10</v>
+      </c>
       <c r="I36" s="109"/>
       <c r="J36" s="109"/>
       <c r="K36" s="109"/>
       <c r="L36" s="109"/>
       <c r="M36" s="109"/>
       <c r="N36" s="109"/>
-      <c r="O36" s="60" t="str">
+      <c r="O36" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P36" s="67" t="str">
+        <v>28</v>
+      </c>
+      <c r="P36" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q36" s="109"/>
-      <c r="R36" s="109"/>
-      <c r="S36" s="109"/>
-      <c r="T36" s="109"/>
+        <v>37.333333333333336</v>
+      </c>
+      <c r="Q36" s="109">
+        <v>50</v>
+      </c>
+      <c r="R36" s="109">
+        <v>50</v>
+      </c>
+      <c r="S36" s="109">
+        <v>30</v>
+      </c>
+      <c r="T36" s="109">
+        <v>30</v>
+      </c>
       <c r="U36" s="109"/>
       <c r="V36" s="109"/>
       <c r="W36" s="109"/>
       <c r="X36" s="109"/>
       <c r="Y36" s="109"/>
       <c r="Z36" s="109"/>
-      <c r="AA36" s="60" t="str">
+      <c r="AA36" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB36" s="67" t="str">
+        <v>160</v>
+      </c>
+      <c r="AB36" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC36" s="111"/>
-      <c r="AD36" s="67" t="str">
+        <v>80</v>
+      </c>
+      <c r="AC36" s="111">
+        <v>14</v>
+      </c>
+      <c r="AD36" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE36" s="66" t="str">
+        <v>15.555555555555555</v>
+      </c>
+      <c r="AE36" s="66">
         <f>CRS!H36</f>
-        <v/>
-      </c>
-      <c r="AF36" s="64" t="str">
+        <v>44.008888888888897</v>
+      </c>
+      <c r="AF36" s="64">
         <f>CRS!I36</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="AG36" s="301"/>
       <c r="AH36" s="299"/>
@@ -21979,53 +22517,69 @@
         <v>BSCS-DIGITAL ARTS TRACK-1</v>
       </c>
       <c r="E37" s="109"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="109"/>
-      <c r="H37" s="109"/>
+      <c r="F37" s="109">
+        <v>17</v>
+      </c>
+      <c r="G37" s="109">
+        <v>17</v>
+      </c>
+      <c r="H37" s="109">
+        <v>10</v>
+      </c>
       <c r="I37" s="109"/>
       <c r="J37" s="109"/>
       <c r="K37" s="109"/>
       <c r="L37" s="109"/>
       <c r="M37" s="109"/>
       <c r="N37" s="109"/>
-      <c r="O37" s="60" t="str">
+      <c r="O37" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P37" s="67" t="str">
+        <v>44</v>
+      </c>
+      <c r="P37" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q37" s="109"/>
-      <c r="R37" s="109"/>
-      <c r="S37" s="109"/>
-      <c r="T37" s="109"/>
+        <v>58.666666666666664</v>
+      </c>
+      <c r="Q37" s="109">
+        <v>50</v>
+      </c>
+      <c r="R37" s="109">
+        <v>50</v>
+      </c>
+      <c r="S37" s="109">
+        <v>35</v>
+      </c>
+      <c r="T37" s="109">
+        <v>35</v>
+      </c>
       <c r="U37" s="109"/>
       <c r="V37" s="109"/>
       <c r="W37" s="109"/>
       <c r="X37" s="109"/>
       <c r="Y37" s="109"/>
       <c r="Z37" s="109"/>
-      <c r="AA37" s="60" t="str">
+      <c r="AA37" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB37" s="67" t="str">
+        <v>170</v>
+      </c>
+      <c r="AB37" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC37" s="111"/>
-      <c r="AD37" s="67" t="str">
+        <v>85</v>
+      </c>
+      <c r="AC37" s="111">
+        <v>68</v>
+      </c>
+      <c r="AD37" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE37" s="66" t="str">
+        <v>75.555555555555557</v>
+      </c>
+      <c r="AE37" s="66">
         <f>CRS!H37</f>
-        <v/>
-      </c>
-      <c r="AF37" s="64" t="str">
+        <v>73.098888888888894</v>
+      </c>
+      <c r="AF37" s="64">
         <f>CRS!I37</f>
-        <v/>
+        <v>87</v>
       </c>
       <c r="AG37" s="301"/>
       <c r="AH37" s="299"/>
@@ -22049,54 +22603,72 @@
         <f>CRS!D38</f>
         <v>BSCS-DIGITAL ARTS TRACK-2</v>
       </c>
-      <c r="E38" s="109"/>
-      <c r="F38" s="109"/>
-      <c r="G38" s="109"/>
-      <c r="H38" s="109"/>
+      <c r="E38" s="109">
+        <v>15</v>
+      </c>
+      <c r="F38" s="109">
+        <v>15.5</v>
+      </c>
+      <c r="G38" s="109">
+        <v>15.5</v>
+      </c>
+      <c r="H38" s="109">
+        <v>10</v>
+      </c>
       <c r="I38" s="109"/>
       <c r="J38" s="109"/>
       <c r="K38" s="109"/>
       <c r="L38" s="109"/>
       <c r="M38" s="109"/>
       <c r="N38" s="109"/>
-      <c r="O38" s="60" t="str">
+      <c r="O38" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P38" s="67" t="str">
+        <v>56</v>
+      </c>
+      <c r="P38" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q38" s="109"/>
-      <c r="R38" s="109"/>
-      <c r="S38" s="109"/>
-      <c r="T38" s="109"/>
+        <v>74.666666666666671</v>
+      </c>
+      <c r="Q38" s="109">
+        <v>50</v>
+      </c>
+      <c r="R38" s="109">
+        <v>50</v>
+      </c>
+      <c r="S38" s="109">
+        <v>25</v>
+      </c>
+      <c r="T38" s="109">
+        <v>25</v>
+      </c>
       <c r="U38" s="109"/>
       <c r="V38" s="109"/>
       <c r="W38" s="109"/>
       <c r="X38" s="109"/>
       <c r="Y38" s="109"/>
       <c r="Z38" s="109"/>
-      <c r="AA38" s="60" t="str">
+      <c r="AA38" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB38" s="67" t="str">
+        <v>150</v>
+      </c>
+      <c r="AB38" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC38" s="111"/>
-      <c r="AD38" s="67" t="str">
+        <v>75</v>
+      </c>
+      <c r="AC38" s="111">
+        <v>62</v>
+      </c>
+      <c r="AD38" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE38" s="66" t="str">
+        <v>68.888888888888886</v>
+      </c>
+      <c r="AE38" s="66">
         <f>CRS!H38</f>
-        <v/>
-      </c>
-      <c r="AF38" s="64" t="str">
+        <v>72.812222222222232</v>
+      </c>
+      <c r="AF38" s="64">
         <f>CRS!I38</f>
-        <v/>
+        <v>86</v>
       </c>
       <c r="AG38" s="301"/>
       <c r="AH38" s="299"/>
@@ -22120,54 +22692,72 @@
         <f>CRS!D39</f>
         <v>BSIT-WEB TRACK-2</v>
       </c>
-      <c r="E39" s="109"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="109"/>
-      <c r="H39" s="109"/>
+      <c r="E39" s="109">
+        <v>15</v>
+      </c>
+      <c r="F39" s="109">
+        <v>15.5</v>
+      </c>
+      <c r="G39" s="109">
+        <v>15.5</v>
+      </c>
+      <c r="H39" s="109">
+        <v>10</v>
+      </c>
       <c r="I39" s="109"/>
       <c r="J39" s="109"/>
       <c r="K39" s="109"/>
       <c r="L39" s="109"/>
       <c r="M39" s="109"/>
       <c r="N39" s="109"/>
-      <c r="O39" s="60" t="str">
+      <c r="O39" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P39" s="67" t="str">
+        <v>56</v>
+      </c>
+      <c r="P39" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q39" s="109"/>
-      <c r="R39" s="109"/>
-      <c r="S39" s="109"/>
-      <c r="T39" s="109"/>
+        <v>74.666666666666671</v>
+      </c>
+      <c r="Q39" s="109">
+        <v>50</v>
+      </c>
+      <c r="R39" s="109">
+        <v>50</v>
+      </c>
+      <c r="S39" s="109">
+        <v>35</v>
+      </c>
+      <c r="T39" s="109">
+        <v>35</v>
+      </c>
       <c r="U39" s="109"/>
       <c r="V39" s="109"/>
       <c r="W39" s="109"/>
       <c r="X39" s="109"/>
       <c r="Y39" s="109"/>
       <c r="Z39" s="109"/>
-      <c r="AA39" s="60" t="str">
+      <c r="AA39" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB39" s="67" t="str">
+        <v>170</v>
+      </c>
+      <c r="AB39" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC39" s="111"/>
-      <c r="AD39" s="67" t="str">
+        <v>85</v>
+      </c>
+      <c r="AC39" s="111">
+        <v>62</v>
+      </c>
+      <c r="AD39" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE39" s="66" t="str">
+        <v>68.888888888888886</v>
+      </c>
+      <c r="AE39" s="66">
         <f>CRS!H39</f>
-        <v/>
-      </c>
-      <c r="AF39" s="64" t="str">
+        <v>76.112222222222229</v>
+      </c>
+      <c r="AF39" s="64">
         <f>CRS!I39</f>
-        <v/>
+        <v>88</v>
       </c>
       <c r="AG39" s="301"/>
       <c r="AH39" s="299"/>
@@ -22191,54 +22781,72 @@
         <f>CRS!D40</f>
         <v>BSIT-WEB TRACK-2</v>
       </c>
-      <c r="E40" s="109"/>
-      <c r="F40" s="109"/>
-      <c r="G40" s="109"/>
-      <c r="H40" s="109"/>
+      <c r="E40" s="109">
+        <v>10</v>
+      </c>
+      <c r="F40" s="109">
+        <v>20</v>
+      </c>
+      <c r="G40" s="109">
+        <v>20</v>
+      </c>
+      <c r="H40" s="109">
+        <v>10</v>
+      </c>
       <c r="I40" s="109"/>
       <c r="J40" s="109"/>
       <c r="K40" s="109"/>
       <c r="L40" s="109"/>
       <c r="M40" s="109"/>
       <c r="N40" s="109"/>
-      <c r="O40" s="60" t="str">
+      <c r="O40" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P40" s="67" t="str">
+        <v>60</v>
+      </c>
+      <c r="P40" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q40" s="109"/>
-      <c r="R40" s="109"/>
-      <c r="S40" s="109"/>
-      <c r="T40" s="109"/>
+        <v>80</v>
+      </c>
+      <c r="Q40" s="109">
+        <v>50</v>
+      </c>
+      <c r="R40" s="109">
+        <v>35</v>
+      </c>
+      <c r="S40" s="109">
+        <v>30</v>
+      </c>
+      <c r="T40" s="109">
+        <v>30</v>
+      </c>
       <c r="U40" s="109"/>
       <c r="V40" s="109"/>
       <c r="W40" s="109"/>
       <c r="X40" s="109"/>
       <c r="Y40" s="109"/>
       <c r="Z40" s="109"/>
-      <c r="AA40" s="60" t="str">
+      <c r="AA40" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB40" s="67" t="str">
+        <v>145</v>
+      </c>
+      <c r="AB40" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC40" s="111"/>
-      <c r="AD40" s="67" t="str">
+        <v>72.5</v>
+      </c>
+      <c r="AC40" s="111">
+        <v>80</v>
+      </c>
+      <c r="AD40" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE40" s="66" t="str">
+        <v>88.888888888888886</v>
+      </c>
+      <c r="AE40" s="66">
         <f>CRS!H40</f>
-        <v/>
-      </c>
-      <c r="AF40" s="64" t="str">
+        <v>80.547222222222231</v>
+      </c>
+      <c r="AF40" s="64">
         <f>CRS!I40</f>
-        <v/>
+        <v>90</v>
       </c>
       <c r="AG40" s="301"/>
       <c r="AH40" s="299"/>
@@ -22527,21 +23135,21 @@
       <c r="B46" s="335"/>
       <c r="C46" s="336"/>
       <c r="D46" s="336"/>
-      <c r="E46" s="57" t="str">
+      <c r="E46" s="57">
         <f t="shared" ref="E46:N46" si="5">IF(E5="","",E5)</f>
-        <v/>
-      </c>
-      <c r="F46" s="57" t="str">
+        <v>15</v>
+      </c>
+      <c r="F46" s="57">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G46" s="57" t="str">
+        <v>25</v>
+      </c>
+      <c r="G46" s="57">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H46" s="57" t="str">
+        <v>25</v>
+      </c>
+      <c r="H46" s="57">
         <f t="shared" si="5"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="I46" s="57" t="str">
         <f t="shared" si="5"/>
@@ -22569,21 +23177,21 @@
       </c>
       <c r="O46" s="329"/>
       <c r="P46" s="306"/>
-      <c r="Q46" s="57" t="str">
+      <c r="Q46" s="57">
         <f>IF(Q5="","",Q5)</f>
-        <v/>
-      </c>
-      <c r="R46" s="57" t="str">
+        <v>50</v>
+      </c>
+      <c r="R46" s="57">
         <f t="shared" ref="R46:Z46" si="6">IF(R5="","",R5)</f>
-        <v/>
-      </c>
-      <c r="S46" s="57" t="str">
+        <v>50</v>
+      </c>
+      <c r="S46" s="57">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="T46" s="57" t="str">
+        <v>50</v>
+      </c>
+      <c r="T46" s="57">
         <f t="shared" si="6"/>
-        <v/>
+        <v>50</v>
       </c>
       <c r="U46" s="57" t="str">
         <f t="shared" si="6"/>
@@ -22611,9 +23219,9 @@
       </c>
       <c r="AA46" s="330"/>
       <c r="AB46" s="307"/>
-      <c r="AC46" s="57" t="str">
+      <c r="AC46" s="57">
         <f>IF(AC5="","",AC5)</f>
-        <v/>
+        <v>90</v>
       </c>
       <c r="AD46" s="322"/>
       <c r="AE46" s="361"/>
@@ -22634,19 +23242,19 @@
       <c r="D47" s="311"/>
       <c r="E47" s="302" t="str">
         <f>IF(E6="","",E6)</f>
-        <v/>
+        <v>AS01</v>
       </c>
       <c r="F47" s="302" t="str">
         <f t="shared" ref="F47:N47" si="7">IF(F6="","",F6)</f>
-        <v/>
+        <v>QUIZ01</v>
       </c>
       <c r="G47" s="302" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>QUIZ02</v>
       </c>
       <c r="H47" s="302" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>QUIZ03</v>
       </c>
       <c r="I47" s="302" t="str">
         <f t="shared" si="7"/>
@@ -22672,26 +23280,26 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="O47" s="304" t="str">
+      <c r="O47" s="304">
         <f>O6</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="P47" s="306"/>
       <c r="Q47" s="302" t="str">
         <f t="shared" ref="Q47:Z47" si="8">IF(Q6="","",Q6)</f>
-        <v/>
+        <v>CC01</v>
       </c>
       <c r="R47" s="302" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>CC02</v>
       </c>
       <c r="S47" s="302" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>PF01</v>
       </c>
       <c r="T47" s="302" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>PF02</v>
       </c>
       <c r="U47" s="302" t="str">
         <f t="shared" si="8"/>
@@ -22717,9 +23325,9 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AA47" s="304" t="str">
+      <c r="AA47" s="304">
         <f>AA6</f>
-        <v/>
+        <v>200</v>
       </c>
       <c r="AB47" s="307"/>
       <c r="AC47" s="371">
@@ -22830,54 +23438,72 @@
         <f>CRS!D50</f>
         <v>BSIT-WEB TRACK-2</v>
       </c>
-      <c r="E50" s="109"/>
-      <c r="F50" s="109"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="109"/>
+      <c r="E50" s="109">
+        <v>15</v>
+      </c>
+      <c r="F50" s="109">
+        <v>16.5</v>
+      </c>
+      <c r="G50" s="109">
+        <v>16.5</v>
+      </c>
+      <c r="H50" s="109">
+        <v>10</v>
+      </c>
       <c r="I50" s="109"/>
       <c r="J50" s="109"/>
       <c r="K50" s="109"/>
       <c r="L50" s="109"/>
       <c r="M50" s="109"/>
       <c r="N50" s="109"/>
-      <c r="O50" s="60" t="str">
+      <c r="O50" s="60">
         <f t="shared" ref="O50:O80" si="9">IF(SUM(E50:N50)=0,"",SUM(E50:N50))</f>
-        <v/>
-      </c>
-      <c r="P50" s="67" t="str">
+        <v>58</v>
+      </c>
+      <c r="P50" s="67">
         <f t="shared" ref="P50:P80" si="10">IF(O50="","",O50/$O$6*100)</f>
-        <v/>
-      </c>
-      <c r="Q50" s="109"/>
-      <c r="R50" s="109"/>
-      <c r="S50" s="109"/>
-      <c r="T50" s="109"/>
+        <v>77.333333333333329</v>
+      </c>
+      <c r="Q50" s="109">
+        <v>50</v>
+      </c>
+      <c r="R50" s="109">
+        <v>50</v>
+      </c>
+      <c r="S50" s="109">
+        <v>40</v>
+      </c>
+      <c r="T50" s="109">
+        <v>40</v>
+      </c>
       <c r="U50" s="109"/>
       <c r="V50" s="109"/>
       <c r="W50" s="109"/>
       <c r="X50" s="109"/>
       <c r="Y50" s="109"/>
       <c r="Z50" s="109"/>
-      <c r="AA50" s="60" t="str">
+      <c r="AA50" s="60">
         <f t="shared" ref="AA50:AA80" si="11">IF(SUM(Q50:Z50)=0,"",SUM(Q50:Z50))</f>
-        <v/>
-      </c>
-      <c r="AB50" s="67" t="str">
+        <v>180</v>
+      </c>
+      <c r="AB50" s="67">
         <f t="shared" ref="AB50:AB80" si="12">IF(AA50="","",AA50/$AA$6*100)</f>
-        <v/>
-      </c>
-      <c r="AC50" s="111"/>
-      <c r="AD50" s="67" t="str">
+        <v>90</v>
+      </c>
+      <c r="AC50" s="111">
+        <v>66</v>
+      </c>
+      <c r="AD50" s="67">
         <f t="shared" ref="AD50:AD80" si="13">IF(AC50="","",AC50/$AC$5*100)</f>
-        <v/>
-      </c>
-      <c r="AE50" s="66" t="str">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="AE50" s="66">
         <f>CRS!H50</f>
-        <v/>
-      </c>
-      <c r="AF50" s="64" t="str">
+        <v>80.153333333333336</v>
+      </c>
+      <c r="AF50" s="64">
         <f>CRS!I50</f>
-        <v/>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22896,54 +23522,72 @@
         <f>CRS!D51</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E51" s="109"/>
-      <c r="F51" s="109"/>
-      <c r="G51" s="109"/>
-      <c r="H51" s="109"/>
+      <c r="E51" s="109">
+        <v>13</v>
+      </c>
+      <c r="F51" s="109">
+        <v>9</v>
+      </c>
+      <c r="G51" s="109">
+        <v>9</v>
+      </c>
+      <c r="H51" s="109">
+        <v>10</v>
+      </c>
       <c r="I51" s="109"/>
       <c r="J51" s="109"/>
       <c r="K51" s="109"/>
       <c r="L51" s="109"/>
       <c r="M51" s="109"/>
       <c r="N51" s="109"/>
-      <c r="O51" s="60" t="str">
+      <c r="O51" s="60">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="P51" s="67" t="str">
+        <v>41</v>
+      </c>
+      <c r="P51" s="67">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Q51" s="109"/>
-      <c r="R51" s="109"/>
-      <c r="S51" s="109"/>
-      <c r="T51" s="109"/>
+        <v>54.666666666666664</v>
+      </c>
+      <c r="Q51" s="109">
+        <v>50</v>
+      </c>
+      <c r="R51" s="109">
+        <v>50</v>
+      </c>
+      <c r="S51" s="109">
+        <v>35</v>
+      </c>
+      <c r="T51" s="109">
+        <v>35</v>
+      </c>
       <c r="U51" s="109"/>
       <c r="V51" s="109"/>
       <c r="W51" s="109"/>
       <c r="X51" s="109"/>
       <c r="Y51" s="109"/>
       <c r="Z51" s="109"/>
-      <c r="AA51" s="60" t="str">
+      <c r="AA51" s="60">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AB51" s="67" t="str">
+        <v>170</v>
+      </c>
+      <c r="AB51" s="67">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AC51" s="111"/>
-      <c r="AD51" s="67" t="str">
+        <v>85</v>
+      </c>
+      <c r="AC51" s="111">
+        <v>34</v>
+      </c>
+      <c r="AD51" s="67">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AE51" s="66" t="str">
+        <v>37.777777777777779</v>
+      </c>
+      <c r="AE51" s="66">
         <f>CRS!H51</f>
-        <v/>
-      </c>
-      <c r="AF51" s="64" t="str">
+        <v>58.934444444444452</v>
+      </c>
+      <c r="AF51" s="64">
         <f>CRS!I51</f>
-        <v/>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22962,54 +23606,72 @@
         <f>CRS!D52</f>
         <v>BSCS-DIGITAL ARTS TRACK-2</v>
       </c>
-      <c r="E52" s="109"/>
-      <c r="F52" s="109"/>
-      <c r="G52" s="109"/>
-      <c r="H52" s="109"/>
+      <c r="E52" s="109">
+        <v>10</v>
+      </c>
+      <c r="F52" s="109">
+        <v>12</v>
+      </c>
+      <c r="G52" s="109">
+        <v>12</v>
+      </c>
+      <c r="H52" s="109">
+        <v>10</v>
+      </c>
       <c r="I52" s="109"/>
       <c r="J52" s="109"/>
       <c r="K52" s="109"/>
       <c r="L52" s="109"/>
       <c r="M52" s="109"/>
       <c r="N52" s="109"/>
-      <c r="O52" s="60" t="str">
+      <c r="O52" s="60">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="P52" s="67" t="str">
+        <v>44</v>
+      </c>
+      <c r="P52" s="67">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Q52" s="109"/>
-      <c r="R52" s="109"/>
-      <c r="S52" s="109"/>
-      <c r="T52" s="109"/>
+        <v>58.666666666666664</v>
+      </c>
+      <c r="Q52" s="109">
+        <v>50</v>
+      </c>
+      <c r="R52" s="109">
+        <v>50</v>
+      </c>
+      <c r="S52" s="109">
+        <v>20</v>
+      </c>
+      <c r="T52" s="109">
+        <v>20</v>
+      </c>
       <c r="U52" s="109"/>
       <c r="V52" s="109"/>
       <c r="W52" s="109"/>
       <c r="X52" s="109"/>
       <c r="Y52" s="109"/>
       <c r="Z52" s="109"/>
-      <c r="AA52" s="60" t="str">
+      <c r="AA52" s="60">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AB52" s="67" t="str">
+        <v>140</v>
+      </c>
+      <c r="AB52" s="67">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AC52" s="111"/>
-      <c r="AD52" s="67" t="str">
+        <v>70</v>
+      </c>
+      <c r="AC52" s="111">
+        <v>48</v>
+      </c>
+      <c r="AD52" s="67">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AE52" s="66" t="str">
+        <v>53.333333333333336</v>
+      </c>
+      <c r="AE52" s="66">
         <f>CRS!H52</f>
-        <v/>
-      </c>
-      <c r="AF52" s="64" t="str">
+        <v>60.593333333333334</v>
+      </c>
+      <c r="AF52" s="64">
         <f>CRS!I52</f>
-        <v/>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23028,54 +23690,72 @@
         <f>CRS!D53</f>
         <v>BSIT-WEB TRACK-2</v>
       </c>
-      <c r="E53" s="109"/>
-      <c r="F53" s="109"/>
-      <c r="G53" s="109"/>
-      <c r="H53" s="109"/>
+      <c r="E53" s="109">
+        <v>10</v>
+      </c>
+      <c r="F53" s="109">
+        <v>17.5</v>
+      </c>
+      <c r="G53" s="109">
+        <v>17.5</v>
+      </c>
+      <c r="H53" s="109">
+        <v>10</v>
+      </c>
       <c r="I53" s="109"/>
       <c r="J53" s="109"/>
       <c r="K53" s="109"/>
       <c r="L53" s="109"/>
       <c r="M53" s="109"/>
       <c r="N53" s="109"/>
-      <c r="O53" s="60" t="str">
+      <c r="O53" s="60">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="P53" s="67" t="str">
+        <v>55</v>
+      </c>
+      <c r="P53" s="67">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Q53" s="109"/>
-      <c r="R53" s="109"/>
-      <c r="S53" s="109"/>
-      <c r="T53" s="109"/>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="Q53" s="109">
+        <v>50</v>
+      </c>
+      <c r="R53" s="109">
+        <v>50</v>
+      </c>
+      <c r="S53" s="109">
+        <v>25</v>
+      </c>
+      <c r="T53" s="109">
+        <v>25</v>
+      </c>
       <c r="U53" s="109"/>
       <c r="V53" s="109"/>
       <c r="W53" s="109"/>
       <c r="X53" s="109"/>
       <c r="Y53" s="109"/>
       <c r="Z53" s="109"/>
-      <c r="AA53" s="60" t="str">
+      <c r="AA53" s="60">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AB53" s="67" t="str">
+        <v>150</v>
+      </c>
+      <c r="AB53" s="67">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AC53" s="111"/>
-      <c r="AD53" s="67" t="str">
+        <v>75</v>
+      </c>
+      <c r="AC53" s="111">
+        <v>70</v>
+      </c>
+      <c r="AD53" s="67">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AE53" s="66" t="str">
+        <v>77.777777777777786</v>
+      </c>
+      <c r="AE53" s="66">
         <f>CRS!H53</f>
-        <v/>
-      </c>
-      <c r="AF53" s="64" t="str">
+        <v>75.394444444444446</v>
+      </c>
+      <c r="AF53" s="64">
         <f>CRS!I53</f>
-        <v/>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23095,53 +23775,69 @@
         <v>BSIT-WEB TRACK-1</v>
       </c>
       <c r="E54" s="109"/>
-      <c r="F54" s="109"/>
-      <c r="G54" s="109"/>
-      <c r="H54" s="109"/>
+      <c r="F54" s="109">
+        <v>21.5</v>
+      </c>
+      <c r="G54" s="109">
+        <v>21.5</v>
+      </c>
+      <c r="H54" s="109">
+        <v>10</v>
+      </c>
       <c r="I54" s="109"/>
       <c r="J54" s="109"/>
       <c r="K54" s="109"/>
       <c r="L54" s="109"/>
       <c r="M54" s="109"/>
       <c r="N54" s="109"/>
-      <c r="O54" s="60" t="str">
+      <c r="O54" s="60">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="P54" s="67" t="str">
+        <v>53</v>
+      </c>
+      <c r="P54" s="67">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Q54" s="109"/>
-      <c r="R54" s="109"/>
-      <c r="S54" s="109"/>
-      <c r="T54" s="109"/>
+        <v>70.666666666666671</v>
+      </c>
+      <c r="Q54" s="109">
+        <v>50</v>
+      </c>
+      <c r="R54" s="109">
+        <v>50</v>
+      </c>
+      <c r="S54" s="109">
+        <v>20</v>
+      </c>
+      <c r="T54" s="109">
+        <v>20</v>
+      </c>
       <c r="U54" s="109"/>
       <c r="V54" s="109"/>
       <c r="W54" s="109"/>
       <c r="X54" s="109"/>
       <c r="Y54" s="109"/>
       <c r="Z54" s="109"/>
-      <c r="AA54" s="60" t="str">
+      <c r="AA54" s="60">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AB54" s="67" t="str">
+        <v>140</v>
+      </c>
+      <c r="AB54" s="67">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AC54" s="111"/>
-      <c r="AD54" s="67" t="str">
+        <v>70</v>
+      </c>
+      <c r="AC54" s="111">
+        <v>86</v>
+      </c>
+      <c r="AD54" s="67">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AE54" s="66" t="str">
+        <v>95.555555555555557</v>
+      </c>
+      <c r="AE54" s="66">
         <f>CRS!H54</f>
-        <v/>
-      </c>
-      <c r="AF54" s="64" t="str">
+        <v>78.908888888888896</v>
+      </c>
+      <c r="AF54" s="64">
         <f>CRS!I54</f>
-        <v/>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23160,54 +23856,72 @@
         <f>CRS!D55</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E55" s="109"/>
-      <c r="F55" s="109"/>
-      <c r="G55" s="109"/>
-      <c r="H55" s="109"/>
+      <c r="E55" s="109">
+        <v>15</v>
+      </c>
+      <c r="F55" s="109">
+        <v>19</v>
+      </c>
+      <c r="G55" s="109">
+        <v>19</v>
+      </c>
+      <c r="H55" s="109">
+        <v>10</v>
+      </c>
       <c r="I55" s="109"/>
       <c r="J55" s="109"/>
       <c r="K55" s="109"/>
       <c r="L55" s="109"/>
       <c r="M55" s="109"/>
       <c r="N55" s="109"/>
-      <c r="O55" s="60" t="str">
+      <c r="O55" s="60">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="P55" s="67" t="str">
+        <v>63</v>
+      </c>
+      <c r="P55" s="67">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Q55" s="109"/>
-      <c r="R55" s="109"/>
-      <c r="S55" s="109"/>
-      <c r="T55" s="109"/>
+        <v>84</v>
+      </c>
+      <c r="Q55" s="109">
+        <v>50</v>
+      </c>
+      <c r="R55" s="109">
+        <v>50</v>
+      </c>
+      <c r="S55" s="109">
+        <v>40</v>
+      </c>
+      <c r="T55" s="109">
+        <v>40</v>
+      </c>
       <c r="U55" s="109"/>
       <c r="V55" s="109"/>
       <c r="W55" s="109"/>
       <c r="X55" s="109"/>
       <c r="Y55" s="109"/>
       <c r="Z55" s="109"/>
-      <c r="AA55" s="60" t="str">
+      <c r="AA55" s="60">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AB55" s="67" t="str">
+        <v>180</v>
+      </c>
+      <c r="AB55" s="67">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AC55" s="111"/>
-      <c r="AD55" s="67" t="str">
+        <v>90</v>
+      </c>
+      <c r="AC55" s="111">
+        <v>76</v>
+      </c>
+      <c r="AD55" s="67">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AE55" s="66" t="str">
+        <v>84.444444444444443</v>
+      </c>
+      <c r="AE55" s="66">
         <f>CRS!H55</f>
-        <v/>
-      </c>
-      <c r="AF55" s="64" t="str">
+        <v>86.13111111111111</v>
+      </c>
+      <c r="AF55" s="64">
         <f>CRS!I55</f>
-        <v/>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23246,34 +23960,38 @@
       </c>
       <c r="Q56" s="109"/>
       <c r="R56" s="109"/>
-      <c r="S56" s="109"/>
-      <c r="T56" s="109"/>
+      <c r="S56" s="109">
+        <v>25</v>
+      </c>
+      <c r="T56" s="109">
+        <v>25</v>
+      </c>
       <c r="U56" s="109"/>
       <c r="V56" s="109"/>
       <c r="W56" s="109"/>
       <c r="X56" s="109"/>
       <c r="Y56" s="109"/>
       <c r="Z56" s="109"/>
-      <c r="AA56" s="60" t="str">
+      <c r="AA56" s="60">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AB56" s="67" t="str">
+        <v>50</v>
+      </c>
+      <c r="AB56" s="67">
         <f t="shared" si="12"/>
-        <v/>
+        <v>25</v>
       </c>
       <c r="AC56" s="111"/>
       <c r="AD56" s="67" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AE56" s="66" t="str">
+      <c r="AE56" s="66">
         <f>CRS!H56</f>
-        <v/>
-      </c>
-      <c r="AF56" s="64" t="str">
+        <v>8.25</v>
+      </c>
+      <c r="AF56" s="64">
         <f>CRS!I56</f>
-        <v/>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23292,54 +24010,72 @@
         <f>CRS!D57</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E57" s="109"/>
-      <c r="F57" s="109"/>
-      <c r="G57" s="109"/>
-      <c r="H57" s="109"/>
+      <c r="E57" s="109">
+        <v>10</v>
+      </c>
+      <c r="F57" s="109">
+        <v>10</v>
+      </c>
+      <c r="G57" s="109">
+        <v>20</v>
+      </c>
+      <c r="H57" s="109">
+        <v>10</v>
+      </c>
       <c r="I57" s="109"/>
       <c r="J57" s="109"/>
       <c r="K57" s="109"/>
       <c r="L57" s="109"/>
       <c r="M57" s="109"/>
       <c r="N57" s="109"/>
-      <c r="O57" s="60" t="str">
+      <c r="O57" s="60">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="P57" s="67" t="str">
+        <v>50</v>
+      </c>
+      <c r="P57" s="67">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Q57" s="109"/>
-      <c r="R57" s="109"/>
-      <c r="S57" s="109"/>
-      <c r="T57" s="109"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="Q57" s="109">
+        <v>50</v>
+      </c>
+      <c r="R57" s="109">
+        <v>50</v>
+      </c>
+      <c r="S57" s="109">
+        <v>5</v>
+      </c>
+      <c r="T57" s="109">
+        <v>5</v>
+      </c>
       <c r="U57" s="109"/>
       <c r="V57" s="109"/>
       <c r="W57" s="109"/>
       <c r="X57" s="109"/>
       <c r="Y57" s="109"/>
       <c r="Z57" s="109"/>
-      <c r="AA57" s="60" t="str">
+      <c r="AA57" s="60">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AB57" s="67" t="str">
+        <v>110</v>
+      </c>
+      <c r="AB57" s="67">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AC57" s="111"/>
-      <c r="AD57" s="67" t="str">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="AC57" s="111">
+        <v>48</v>
+      </c>
+      <c r="AD57" s="67">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AE57" s="66" t="str">
+        <v>53.333333333333336</v>
+      </c>
+      <c r="AE57" s="66">
         <f>CRS!H57</f>
-        <v/>
-      </c>
-      <c r="AF57" s="64" t="str">
+        <v>58.283333333333331</v>
+      </c>
+      <c r="AF57" s="64">
         <f>CRS!I57</f>
-        <v/>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23358,54 +24094,72 @@
         <f>CRS!D58</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E58" s="109"/>
-      <c r="F58" s="109"/>
-      <c r="G58" s="109"/>
-      <c r="H58" s="109"/>
+      <c r="E58" s="109">
+        <v>15</v>
+      </c>
+      <c r="F58" s="109">
+        <v>17</v>
+      </c>
+      <c r="G58" s="109">
+        <v>17</v>
+      </c>
+      <c r="H58" s="109">
+        <v>10</v>
+      </c>
       <c r="I58" s="109"/>
       <c r="J58" s="109"/>
       <c r="K58" s="109"/>
       <c r="L58" s="109"/>
       <c r="M58" s="109"/>
       <c r="N58" s="109"/>
-      <c r="O58" s="60" t="str">
+      <c r="O58" s="60">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="P58" s="67" t="str">
+        <v>59</v>
+      </c>
+      <c r="P58" s="67">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Q58" s="109"/>
-      <c r="R58" s="109"/>
-      <c r="S58" s="109"/>
-      <c r="T58" s="109"/>
+        <v>78.666666666666657</v>
+      </c>
+      <c r="Q58" s="109">
+        <v>50</v>
+      </c>
+      <c r="R58" s="109">
+        <v>50</v>
+      </c>
+      <c r="S58" s="109">
+        <v>40</v>
+      </c>
+      <c r="T58" s="109">
+        <v>40</v>
+      </c>
       <c r="U58" s="109"/>
       <c r="V58" s="109"/>
       <c r="W58" s="109"/>
       <c r="X58" s="109"/>
       <c r="Y58" s="109"/>
       <c r="Z58" s="109"/>
-      <c r="AA58" s="60" t="str">
+      <c r="AA58" s="60">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AB58" s="67" t="str">
+        <v>180</v>
+      </c>
+      <c r="AB58" s="67">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AC58" s="111"/>
-      <c r="AD58" s="67" t="str">
+        <v>90</v>
+      </c>
+      <c r="AC58" s="111">
+        <v>68</v>
+      </c>
+      <c r="AD58" s="67">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AE58" s="66" t="str">
+        <v>75.555555555555557</v>
+      </c>
+      <c r="AE58" s="66">
         <f>CRS!H58</f>
-        <v/>
-      </c>
-      <c r="AF58" s="64" t="str">
+        <v>81.348888888888894</v>
+      </c>
+      <c r="AF58" s="64">
         <f>CRS!I58</f>
-        <v/>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -37766,9 +38520,9 @@
         <v>BSIT-WEB TRACK-1</v>
       </c>
       <c r="H15" s="133"/>
-      <c r="I15" s="144" t="str">
+      <c r="I15" s="144">
         <f>IF(CRS!I9="","",CRS!I9)</f>
-        <v/>
+        <v>93</v>
       </c>
       <c r="J15" s="145"/>
       <c r="K15" s="144" t="str">
@@ -37825,9 +38579,9 @@
         <v>BSCS-DIGITAL ARTS TRACK-2</v>
       </c>
       <c r="H16" s="133"/>
-      <c r="I16" s="144" t="str">
+      <c r="I16" s="144">
         <f>IF(CRS!I10="","",CRS!I10)</f>
-        <v/>
+        <v>78</v>
       </c>
       <c r="J16" s="145"/>
       <c r="K16" s="144" t="str">
@@ -37884,9 +38638,9 @@
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
       <c r="H17" s="133"/>
-      <c r="I17" s="144" t="str">
+      <c r="I17" s="144">
         <f>IF(CRS!I11="","",CRS!I11)</f>
-        <v/>
+        <v>86</v>
       </c>
       <c r="J17" s="145"/>
       <c r="K17" s="144" t="str">
@@ -37943,9 +38697,9 @@
         <v>BSIT-NET SEC TRACK-2</v>
       </c>
       <c r="H18" s="133"/>
-      <c r="I18" s="144" t="str">
+      <c r="I18" s="144">
         <f>IF(CRS!I12="","",CRS!I12)</f>
-        <v/>
+        <v>90</v>
       </c>
       <c r="J18" s="145"/>
       <c r="K18" s="144" t="str">
@@ -38002,9 +38756,9 @@
         <v>BSIT-WEB TRACK-1</v>
       </c>
       <c r="H19" s="133"/>
-      <c r="I19" s="144" t="str">
+      <c r="I19" s="144">
         <f>IF(CRS!I13="","",CRS!I13)</f>
-        <v/>
+        <v>93</v>
       </c>
       <c r="J19" s="145"/>
       <c r="K19" s="144" t="str">
@@ -38061,9 +38815,9 @@
         <v>BSCS-DIGITAL ARTS TRACK-1</v>
       </c>
       <c r="H20" s="133"/>
-      <c r="I20" s="144" t="str">
+      <c r="I20" s="144">
         <f>IF(CRS!I14="","",CRS!I14)</f>
-        <v/>
+        <v>89</v>
       </c>
       <c r="J20" s="145"/>
       <c r="K20" s="144" t="str">
@@ -38120,9 +38874,9 @@
         <v>BSIT-WEB TRACK-2</v>
       </c>
       <c r="H21" s="133"/>
-      <c r="I21" s="144" t="str">
+      <c r="I21" s="144">
         <f>IF(CRS!I15="","",CRS!I15)</f>
-        <v/>
+        <v>81</v>
       </c>
       <c r="J21" s="145"/>
       <c r="K21" s="144" t="str">
@@ -38179,9 +38933,9 @@
         <v>BSIT-WEB TRACK-1</v>
       </c>
       <c r="H22" s="133"/>
-      <c r="I22" s="144" t="str">
+      <c r="I22" s="144">
         <f>IF(CRS!I16="","",CRS!I16)</f>
-        <v/>
+        <v>88</v>
       </c>
       <c r="J22" s="145"/>
       <c r="K22" s="144" t="str">
@@ -38238,9 +38992,9 @@
         <v>BSIT-NET SEC TRACK-2</v>
       </c>
       <c r="H23" s="133"/>
-      <c r="I23" s="144" t="str">
+      <c r="I23" s="144">
         <f>IF(CRS!I17="","",CRS!I17)</f>
-        <v/>
+        <v>91</v>
       </c>
       <c r="J23" s="145"/>
       <c r="K23" s="144" t="str">
@@ -38297,9 +39051,9 @@
         <v>BSIT-WEB TRACK-1</v>
       </c>
       <c r="H24" s="133"/>
-      <c r="I24" s="144" t="str">
+      <c r="I24" s="144">
         <f>IF(CRS!I18="","",CRS!I18)</f>
-        <v/>
+        <v>83</v>
       </c>
       <c r="J24" s="145"/>
       <c r="K24" s="144" t="str">
@@ -38356,9 +39110,9 @@
         <v>BSIT-WEB TRACK-2</v>
       </c>
       <c r="H25" s="133"/>
-      <c r="I25" s="144" t="str">
+      <c r="I25" s="144">
         <f>IF(CRS!I19="","",CRS!I19)</f>
-        <v/>
+        <v>81</v>
       </c>
       <c r="J25" s="145"/>
       <c r="K25" s="144" t="str">
@@ -38415,9 +39169,9 @@
         <v>BSIT-BA TRACK-1</v>
       </c>
       <c r="H26" s="133"/>
-      <c r="I26" s="144" t="str">
+      <c r="I26" s="144">
         <f>IF(CRS!I20="","",CRS!I20)</f>
-        <v/>
+        <v>82</v>
       </c>
       <c r="J26" s="145"/>
       <c r="K26" s="144" t="str">
@@ -38474,9 +39228,9 @@
         <v>BSIT-WEB TRACK-2</v>
       </c>
       <c r="H27" s="133"/>
-      <c r="I27" s="144" t="str">
+      <c r="I27" s="144">
         <f>IF(CRS!I21="","",CRS!I21)</f>
-        <v/>
+        <v>84</v>
       </c>
       <c r="J27" s="145"/>
       <c r="K27" s="144" t="str">
@@ -38533,9 +39287,9 @@
         <v>BSIT-WEB TRACK-1</v>
       </c>
       <c r="H28" s="133"/>
-      <c r="I28" s="144" t="str">
+      <c r="I28" s="144">
         <f>IF(CRS!I22="","",CRS!I22)</f>
-        <v/>
+        <v>92</v>
       </c>
       <c r="J28" s="145"/>
       <c r="K28" s="144" t="str">
@@ -38592,9 +39346,9 @@
         <v>BSIT-WEB TRACK-1</v>
       </c>
       <c r="H29" s="133"/>
-      <c r="I29" s="144" t="str">
+      <c r="I29" s="144">
         <f>IF(CRS!I23="","",CRS!I23)</f>
-        <v/>
+        <v>87</v>
       </c>
       <c r="J29" s="145"/>
       <c r="K29" s="144" t="str">
@@ -38651,9 +39405,9 @@
         <v>BSCS-DIGITAL ARTS TRACK-2</v>
       </c>
       <c r="H30" s="133"/>
-      <c r="I30" s="144" t="str">
+      <c r="I30" s="144">
         <f>IF(CRS!I24="","",CRS!I24)</f>
-        <v/>
+        <v>81</v>
       </c>
       <c r="J30" s="145"/>
       <c r="K30" s="144" t="str">
@@ -38710,9 +39464,9 @@
         <v>BSIT-WEB TRACK-1</v>
       </c>
       <c r="H31" s="133"/>
-      <c r="I31" s="144" t="str">
+      <c r="I31" s="144">
         <f>IF(CRS!I25="","",CRS!I25)</f>
-        <v/>
+        <v>89</v>
       </c>
       <c r="J31" s="145"/>
       <c r="K31" s="144" t="str">
@@ -38769,9 +39523,9 @@
         <v>BSIT-NET SEC TRACK-2</v>
       </c>
       <c r="H32" s="133"/>
-      <c r="I32" s="144" t="str">
+      <c r="I32" s="144">
         <f>IF(CRS!I26="","",CRS!I26)</f>
-        <v/>
+        <v>80</v>
       </c>
       <c r="J32" s="145"/>
       <c r="K32" s="144" t="str">
@@ -38828,9 +39582,9 @@
         <v>BSIT-WEB TRACK-1</v>
       </c>
       <c r="H33" s="133"/>
-      <c r="I33" s="144" t="str">
+      <c r="I33" s="144">
         <f>IF(CRS!I27="","",CRS!I27)</f>
-        <v/>
+        <v>79</v>
       </c>
       <c r="J33" s="145"/>
       <c r="K33" s="144" t="str">
@@ -38887,9 +39641,9 @@
         <v>BSIT-WEB TRACK-2</v>
       </c>
       <c r="H34" s="133"/>
-      <c r="I34" s="144" t="str">
+      <c r="I34" s="144">
         <f>IF(CRS!I28="","",CRS!I28)</f>
-        <v/>
+        <v>87</v>
       </c>
       <c r="J34" s="145"/>
       <c r="K34" s="144" t="str">
@@ -38946,9 +39700,9 @@
         <v>BSIT-NET SEC TRACK-2</v>
       </c>
       <c r="H35" s="133"/>
-      <c r="I35" s="144" t="str">
+      <c r="I35" s="144">
         <f>IF(CRS!I29="","",CRS!I29)</f>
-        <v/>
+        <v>89</v>
       </c>
       <c r="J35" s="145"/>
       <c r="K35" s="144" t="str">
@@ -39005,9 +39759,9 @@
         <v>BSIT-NET SEC TRACK-2</v>
       </c>
       <c r="H36" s="133"/>
-      <c r="I36" s="144" t="str">
+      <c r="I36" s="144">
         <f>IF(CRS!I30="","",CRS!I30)</f>
-        <v/>
+        <v>78</v>
       </c>
       <c r="J36" s="145"/>
       <c r="K36" s="144" t="str">
@@ -39064,9 +39818,9 @@
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
       <c r="H37" s="133"/>
-      <c r="I37" s="144" t="str">
+      <c r="I37" s="144">
         <f>IF(CRS!I31="","",CRS!I31)</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="J37" s="145"/>
       <c r="K37" s="144" t="str">
@@ -39123,9 +39877,9 @@
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
       <c r="H38" s="133"/>
-      <c r="I38" s="144" t="str">
+      <c r="I38" s="144">
         <f>IF(CRS!I32="","",CRS!I32)</f>
-        <v/>
+        <v>79</v>
       </c>
       <c r="J38" s="145"/>
       <c r="K38" s="144" t="str">
@@ -39182,9 +39936,9 @@
         <v>BSCPE-4</v>
       </c>
       <c r="H39" s="133"/>
-      <c r="I39" s="144" t="str">
+      <c r="I39" s="144">
         <f>IF(CRS!I33="","",CRS!I33)</f>
-        <v/>
+        <v>86</v>
       </c>
       <c r="J39" s="145"/>
       <c r="K39" s="144" t="str">
@@ -39241,9 +39995,9 @@
         <v>BSIT-ERP TRACK-1</v>
       </c>
       <c r="H40" s="133"/>
-      <c r="I40" s="144" t="str">
+      <c r="I40" s="144">
         <f>IF(CRS!I34="","",CRS!I34)</f>
-        <v/>
+        <v>70</v>
       </c>
       <c r="J40" s="145"/>
       <c r="K40" s="144" t="str">
@@ -39300,9 +40054,9 @@
         <v>BSIT-WEB TRACK-2</v>
       </c>
       <c r="H41" s="133"/>
-      <c r="I41" s="144" t="str">
+      <c r="I41" s="144">
         <f>IF(CRS!I35="","",CRS!I35)</f>
-        <v/>
+        <v>82</v>
       </c>
       <c r="J41" s="145"/>
       <c r="K41" s="144" t="str">
@@ -39359,9 +40113,9 @@
         <v>BSCS-DIGITAL ARTS TRACK-2</v>
       </c>
       <c r="H42" s="133"/>
-      <c r="I42" s="144" t="str">
+      <c r="I42" s="144">
         <f>IF(CRS!I36="","",CRS!I36)</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="J42" s="145"/>
       <c r="K42" s="144" t="str">
@@ -39418,9 +40172,9 @@
         <v>BSCS-DIGITAL ARTS TRACK-1</v>
       </c>
       <c r="H43" s="133"/>
-      <c r="I43" s="144" t="str">
+      <c r="I43" s="144">
         <f>IF(CRS!I37="","",CRS!I37)</f>
-        <v/>
+        <v>87</v>
       </c>
       <c r="J43" s="145"/>
       <c r="K43" s="144" t="str">
@@ -39477,9 +40231,9 @@
         <v>BSCS-DIGITAL ARTS TRACK-2</v>
       </c>
       <c r="H44" s="133"/>
-      <c r="I44" s="144" t="str">
+      <c r="I44" s="144">
         <f>IF(CRS!I38="","",CRS!I38)</f>
-        <v/>
+        <v>86</v>
       </c>
       <c r="J44" s="145"/>
       <c r="K44" s="144" t="str">
@@ -39536,9 +40290,9 @@
         <v>BSIT-WEB TRACK-2</v>
       </c>
       <c r="H45" s="133"/>
-      <c r="I45" s="144" t="str">
+      <c r="I45" s="144">
         <f>IF(CRS!I39="","",CRS!I39)</f>
-        <v/>
+        <v>88</v>
       </c>
       <c r="J45" s="145"/>
       <c r="K45" s="144" t="str">
@@ -39595,9 +40349,9 @@
         <v>BSIT-WEB TRACK-2</v>
       </c>
       <c r="H46" s="133"/>
-      <c r="I46" s="144" t="str">
+      <c r="I46" s="144">
         <f>IF(CRS!I40="","",CRS!I40)</f>
-        <v/>
+        <v>90</v>
       </c>
       <c r="J46" s="145"/>
       <c r="K46" s="144" t="str">
@@ -40167,9 +40921,9 @@
         <v>BSIT-WEB TRACK-2</v>
       </c>
       <c r="H76" s="133"/>
-      <c r="I76" s="144" t="str">
+      <c r="I76" s="144">
         <f>IF(CRS!I50="","",CRS!I50)</f>
-        <v/>
+        <v>90</v>
       </c>
       <c r="J76" s="145"/>
       <c r="K76" s="144" t="str">
@@ -40226,9 +40980,9 @@
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
       <c r="H77" s="133"/>
-      <c r="I77" s="144" t="str">
+      <c r="I77" s="144">
         <f>IF(CRS!I51="","",CRS!I51)</f>
-        <v/>
+        <v>79</v>
       </c>
       <c r="J77" s="145"/>
       <c r="K77" s="144" t="str">
@@ -40285,9 +41039,9 @@
         <v>BSCS-DIGITAL ARTS TRACK-2</v>
       </c>
       <c r="H78" s="133"/>
-      <c r="I78" s="144" t="str">
+      <c r="I78" s="144">
         <f>IF(CRS!I52="","",CRS!I52)</f>
-        <v/>
+        <v>80</v>
       </c>
       <c r="J78" s="145"/>
       <c r="K78" s="144" t="str">
@@ -40344,9 +41098,9 @@
         <v>BSIT-WEB TRACK-2</v>
       </c>
       <c r="H79" s="133"/>
-      <c r="I79" s="144" t="str">
+      <c r="I79" s="144">
         <f>IF(CRS!I53="","",CRS!I53)</f>
-        <v/>
+        <v>88</v>
       </c>
       <c r="J79" s="145"/>
       <c r="K79" s="144" t="str">
@@ -40403,9 +41157,9 @@
         <v>BSIT-WEB TRACK-1</v>
       </c>
       <c r="H80" s="133"/>
-      <c r="I80" s="144" t="str">
+      <c r="I80" s="144">
         <f>IF(CRS!I54="","",CRS!I54)</f>
-        <v/>
+        <v>89</v>
       </c>
       <c r="J80" s="145"/>
       <c r="K80" s="144" t="str">
@@ -40462,9 +41216,9 @@
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
       <c r="H81" s="133"/>
-      <c r="I81" s="144" t="str">
+      <c r="I81" s="144">
         <f>IF(CRS!I55="","",CRS!I55)</f>
-        <v/>
+        <v>93</v>
       </c>
       <c r="J81" s="145"/>
       <c r="K81" s="144" t="str">
@@ -40521,9 +41275,9 @@
         <v>BSIT-WEB TRACK-1</v>
       </c>
       <c r="H82" s="133"/>
-      <c r="I82" s="144" t="str">
+      <c r="I82" s="144">
         <f>IF(CRS!I56="","",CRS!I56)</f>
-        <v/>
+        <v>71</v>
       </c>
       <c r="J82" s="145"/>
       <c r="K82" s="144" t="str">
@@ -40580,9 +41334,9 @@
         <v>BSIT-WEB TRACK-1</v>
       </c>
       <c r="H83" s="133"/>
-      <c r="I83" s="144" t="str">
+      <c r="I83" s="144">
         <f>IF(CRS!I57="","",CRS!I57)</f>
-        <v/>
+        <v>79</v>
       </c>
       <c r="J83" s="145"/>
       <c r="K83" s="144" t="str">
@@ -40639,9 +41393,9 @@
         <v>BSIT-WEB TRACK-1</v>
       </c>
       <c r="H84" s="133"/>
-      <c r="I84" s="144" t="str">
+      <c r="I84" s="144">
         <f>IF(CRS!I58="","",CRS!I58)</f>
-        <v/>
+        <v>91</v>
       </c>
       <c r="J84" s="145"/>
       <c r="K84" s="144" t="str">
